--- a/wordfile.xlsx
+++ b/wordfile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5604" tabRatio="929"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5604" tabRatio="900"/>
   </bookViews>
   <sheets>
     <sheet name="eng1" sheetId="1" r:id="rId1"/>
@@ -15252,8 +15252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B176"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="BG51" sqref="BG51"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="DP321" sqref="DP321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -19251,8 +19251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="XEP1" workbookViewId="0">
+      <selection activeCell="XFC1" sqref="XFC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -19923,8 +19923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B171"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="D173" sqref="D173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -23995,8 +23995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -24931,8 +24931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C74"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/wordfile.xlsx
+++ b/wordfile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5604" tabRatio="900"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5604" tabRatio="900" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="eng1" sheetId="1" r:id="rId1"/>
@@ -15252,8 +15252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="DP321" sqref="DP321"/>
+    <sheetView topLeftCell="A94" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B172" sqref="B172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -18235,9 +18235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -19923,9 +19921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B171"/>
   <sheetViews>
-    <sheetView topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="D173" sqref="D173"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -25539,8 +25535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B187"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C187"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/wordfile.xlsx
+++ b/wordfile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5604" tabRatio="900" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5604" tabRatio="900" firstSheet="7" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="eng1" sheetId="1" r:id="rId1"/>
@@ -25535,7 +25535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
@@ -29215,8 +29215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/wordfile.xlsx
+++ b/wordfile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5604" tabRatio="900" firstSheet="5" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5604" tabRatio="900" firstSheet="5" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="eng1" sheetId="1" r:id="rId1"/>
@@ -26,19 +26,18 @@
     <sheet name="eng12" sheetId="12" r:id="rId12"/>
     <sheet name="eng13" sheetId="13" r:id="rId13"/>
     <sheet name="eng14" sheetId="14" r:id="rId14"/>
-    <sheet name="eng15" sheetId="15" r:id="rId15"/>
-    <sheet name="eng16" sheetId="16" r:id="rId16"/>
-    <sheet name="eng17" sheetId="17" r:id="rId17"/>
-    <sheet name="eng18" sheetId="18" r:id="rId18"/>
-    <sheet name="wow..." sheetId="19" r:id="rId19"/>
-    <sheet name="good" sheetId="20" r:id="rId20"/>
+    <sheet name="eng16" sheetId="15" r:id="rId15"/>
+    <sheet name="eng17" sheetId="16" r:id="rId16"/>
+    <sheet name="eng18" sheetId="17" r:id="rId17"/>
+    <sheet name="wow..." sheetId="18" r:id="rId18"/>
+    <sheet name="good" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5032" uniqueCount="4370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4910" uniqueCount="4283">
   <si>
     <t>landscaping</t>
   </si>
@@ -11092,1923 +11091,1626 @@
     <t>방향 수정</t>
   </si>
   <si>
-    <t>surveillance</t>
-  </si>
-  <si>
-    <t>감시</t>
-  </si>
-  <si>
-    <t>규범</t>
+    <t>durable</t>
+  </si>
+  <si>
+    <t>튼튼한, 내구성이 있는</t>
+  </si>
+  <si>
+    <t>empower</t>
+  </si>
+  <si>
+    <t>~할 수 있도록 하다</t>
+  </si>
+  <si>
+    <t>특징; 특징으로 하다</t>
+  </si>
+  <si>
+    <t>약</t>
+  </si>
+  <si>
+    <t>treasure</t>
+  </si>
+  <si>
+    <t>간직하다</t>
+  </si>
+  <si>
+    <t>beforehand</t>
+  </si>
+  <si>
+    <t>사전에</t>
+  </si>
+  <si>
+    <t>compositional</t>
+  </si>
+  <si>
+    <t>구도의, 구성의, 작곡의</t>
+  </si>
+  <si>
+    <t>보완하다, 보충하다</t>
+  </si>
+  <si>
+    <t>unanticipated</t>
+  </si>
+  <si>
+    <t>예기치 않은</t>
+  </si>
+  <si>
+    <t>유기체, 생물</t>
+  </si>
+  <si>
+    <t>실현하다, 인식하다</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>표현 수단, 매체</t>
+  </si>
+  <si>
+    <t>한계, 제한</t>
+  </si>
+  <si>
+    <t>translate</t>
+  </si>
+  <si>
+    <t>옮기다, 번역하다</t>
+  </si>
+  <si>
+    <t>구상, 이해</t>
+  </si>
+  <si>
+    <t>이동성</t>
+  </si>
+  <si>
+    <t>characteristic</t>
+  </si>
+  <si>
+    <t>특성, 특징</t>
+  </si>
+  <si>
+    <t>시행하다</t>
+  </si>
+  <si>
+    <t>모이다, 무리를 이루다</t>
+  </si>
+  <si>
+    <t>suburb</t>
+  </si>
+  <si>
+    <t>교외, 변두리</t>
+  </si>
+  <si>
+    <t>disperse</t>
+  </si>
+  <si>
+    <t>분산하다</t>
+  </si>
+  <si>
+    <t>찾아내다, ~의 장소를 알아내다</t>
+  </si>
+  <si>
+    <t>passion</t>
+  </si>
+  <si>
+    <t>열정</t>
+  </si>
+  <si>
+    <t>quit</t>
+  </si>
+  <si>
+    <t>그만두다, 포기하다</t>
+  </si>
+  <si>
+    <t>dayjob</t>
+  </si>
+  <si>
+    <t>본업</t>
+  </si>
+  <si>
+    <t>part-time job</t>
+  </si>
+  <si>
+    <t>시간제 근무[일]</t>
+  </si>
+  <si>
+    <t>endeavor</t>
+  </si>
+  <si>
+    <t>시도, 노력; 노력하다</t>
+  </si>
+  <si>
+    <t>independent</t>
+  </si>
+  <si>
+    <t>business owner</t>
+  </si>
+  <si>
+    <t>사업주, 경영주</t>
+  </si>
+  <si>
+    <t>biography</t>
+  </si>
+  <si>
+    <t>전기</t>
+  </si>
+  <si>
+    <t>pronounce</t>
+  </si>
+  <si>
+    <t>표명하다, 발음하다</t>
+  </si>
+  <si>
+    <t>enthusiastic</t>
+  </si>
+  <si>
+    <t>열광적인, 열렬한</t>
+  </si>
+  <si>
+    <t>handful</t>
+  </si>
+  <si>
+    <t>몇 안 되는 수, 소수, 한 움큼</t>
+  </si>
+  <si>
+    <t>impress</t>
+  </si>
+  <si>
+    <t>감명을 주다</t>
+  </si>
+  <si>
+    <t>드러나다, 표면화하다; 표면</t>
+  </si>
+  <si>
+    <t>제시하다, 제공하다</t>
+  </si>
+  <si>
+    <t>행성</t>
+  </si>
+  <si>
+    <t>문명</t>
+  </si>
+  <si>
+    <t>galaxy</t>
+  </si>
+  <si>
+    <t>은하계, 은하수</t>
+  </si>
+  <si>
+    <t>extraterrestrial intelligence</t>
+  </si>
+  <si>
+    <t>외계 지적 생명체, 지능이 있는 외계인</t>
+  </si>
+  <si>
+    <t>scan</t>
+  </si>
+  <si>
+    <t>(무엇을 찾느라고 유심히) 살피다</t>
+  </si>
+  <si>
+    <t>intercept</t>
+  </si>
+  <si>
+    <t>(무전이나 방송 등을) 수신하다, 엿듣다, 가로채다</t>
+  </si>
+  <si>
+    <t>일관성 있는, 일치하는</t>
+  </si>
+  <si>
+    <t>fundamentally</t>
+  </si>
+  <si>
+    <t>근본적으로</t>
+  </si>
+  <si>
+    <t>진화하다</t>
+  </si>
+  <si>
+    <t>vastness</t>
+  </si>
+  <si>
+    <t>광활한 넓이, 광대함</t>
+  </si>
+  <si>
+    <t>interstellar</t>
+  </si>
+  <si>
+    <t>항성 간의, 별과 별 사이의</t>
+  </si>
+  <si>
+    <t>distance</t>
+  </si>
+  <si>
+    <t>거리</t>
+  </si>
+  <si>
+    <t>set ~ aside</t>
+  </si>
+  <si>
+    <t>~을 제쳐 두다, ~을 차치하다</t>
+  </si>
+  <si>
+    <t>astrobiology</t>
+  </si>
+  <si>
+    <t>우주생물학</t>
+  </si>
+  <si>
+    <t>make reference to</t>
+  </si>
+  <si>
+    <t>~을 언급하다, ~을 참조하다</t>
+  </si>
+  <si>
+    <t>앞당기다, 진척시키다</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>다루다, 처리하다</t>
+  </si>
+  <si>
+    <t>설명, 계좌</t>
+  </si>
+  <si>
+    <t>consciousness</t>
+  </si>
+  <si>
+    <t>의식</t>
+  </si>
+  <si>
+    <t>arise</t>
+  </si>
+  <si>
+    <t>비롯되다, 발생하다</t>
+  </si>
+  <si>
+    <t>부여하다, 배정하다</t>
+  </si>
+  <si>
+    <t>지각</t>
+  </si>
+  <si>
+    <t>fit into</t>
+  </si>
+  <si>
+    <t>~에 들어맞다</t>
+  </si>
+  <si>
+    <t>인과적인, 인과관계의</t>
+  </si>
+  <si>
+    <t>연쇄, 순서</t>
+  </si>
+  <si>
+    <t>crucially</t>
+  </si>
+  <si>
+    <t>결정적으로</t>
+  </si>
+  <si>
+    <t>agriculture</t>
+  </si>
+  <si>
+    <t>농업</t>
+  </si>
+  <si>
+    <t>기업, 산업</t>
+  </si>
+  <si>
+    <t>접근(권)</t>
+  </si>
+  <si>
+    <t>자원, 자산</t>
+  </si>
+  <si>
+    <t>보조금</t>
+  </si>
+  <si>
+    <t>대출</t>
+  </si>
+  <si>
+    <t>반드시 ~하게 하다, 보장하다</t>
+  </si>
+  <si>
+    <t>community board</t>
+  </si>
+  <si>
+    <t>주민 참여 위원회</t>
+  </si>
+  <si>
+    <t>taskforce</t>
+  </si>
+  <si>
+    <t>(특별) 전문위원회</t>
+  </si>
+  <si>
+    <t>연계되다, 명료하게 발음하다</t>
+  </si>
+  <si>
+    <t>basic commodities</t>
+  </si>
+  <si>
+    <t>(쌀 밀, 옥수수 등의) 기초 농산물, 기본 필수품</t>
+  </si>
+  <si>
+    <t>comprehensive</t>
+  </si>
+  <si>
+    <t>종합적인, 포괄적인</t>
+  </si>
+  <si>
+    <t>pavement</t>
+  </si>
+  <si>
+    <t>노면, 포장도로</t>
+  </si>
+  <si>
+    <t>~의 원인이 되다, ~에 기여하다</t>
+  </si>
+  <si>
+    <t>discomfort</t>
+  </si>
+  <si>
+    <t>불쾌(감), 불안(감)</t>
+  </si>
+  <si>
+    <t>respiratory</t>
+  </si>
+  <si>
+    <t>호흡의</t>
+  </si>
+  <si>
+    <t>cramp</t>
+  </si>
+  <si>
+    <t>경련</t>
+  </si>
+  <si>
+    <t>exhaustion</t>
+  </si>
+  <si>
+    <t>탈진, 소모</t>
+  </si>
+  <si>
+    <t>nonfatal</t>
+  </si>
+  <si>
+    <t>생명에 지장이 없는</t>
+  </si>
+  <si>
+    <t>heat stroke</t>
+  </si>
+  <si>
+    <t>열사병</t>
+  </si>
+  <si>
+    <t>mortality</t>
+  </si>
+  <si>
+    <t>사망, 사망자 수</t>
+  </si>
+  <si>
+    <t>heat wave</t>
+  </si>
+  <si>
+    <t>혹서기</t>
+  </si>
+  <si>
+    <t>abnormally</t>
+  </si>
+  <si>
+    <t>비정상적으로</t>
+  </si>
+  <si>
+    <t>sensitive</t>
+  </si>
+  <si>
+    <t>민감한, 예민한</t>
+  </si>
+  <si>
+    <t>heat event</t>
+  </si>
+  <si>
+    <t>폭염</t>
+  </si>
+  <si>
+    <t>abrupt</t>
+  </si>
+  <si>
+    <t>갑작스러운</t>
+  </si>
+  <si>
+    <t>인식하다, 깨닫다</t>
+  </si>
+  <si>
+    <t>근본적인, 기초적인</t>
+  </si>
+  <si>
+    <t>abstraction</t>
+  </si>
+  <si>
+    <t>추상 관념, 추출</t>
+  </si>
+  <si>
+    <t>(수학) 공식, 화학식 (pl. formulae)</t>
+  </si>
+  <si>
+    <t>in principle</t>
+  </si>
+  <si>
+    <t>원론적으로</t>
+  </si>
+  <si>
+    <t>comprehensible</t>
+  </si>
+  <si>
+    <t>이해될 수 있는</t>
+  </si>
+  <si>
+    <t>정확성, 정확도</t>
+  </si>
+  <si>
+    <t>correspond to</t>
+  </si>
+  <si>
+    <t>~와 부합하다, ~와 상응하다</t>
+  </si>
+  <si>
+    <t>emerging</t>
+  </si>
+  <si>
+    <t>신생의</t>
+  </si>
+  <si>
+    <t>ordered</t>
+  </si>
+  <si>
+    <t>질서 정연한, 정돈된</t>
+  </si>
+  <si>
+    <t>superstition</t>
+  </si>
+  <si>
+    <t>미신</t>
+  </si>
+  <si>
+    <t>(모습을) 드러내다, 나타나다</t>
+  </si>
+  <si>
+    <t>증명, 증거</t>
+  </si>
+  <si>
+    <t>triumph</t>
+  </si>
+  <si>
+    <t>승리하다</t>
+  </si>
+  <si>
+    <t>observation</t>
+  </si>
+  <si>
+    <t>관찰 (결과)</t>
+  </si>
+  <si>
+    <t>instinctive</t>
+  </si>
+  <si>
+    <t>본능적인, 본능의</t>
+  </si>
+  <si>
+    <t>urge</t>
+  </si>
+  <si>
+    <t>충동; 권고하다</t>
+  </si>
+  <si>
+    <t>displacement activity</t>
+  </si>
+  <si>
+    <t>전위행동(두 가지의 모순된 자극이 주어졌을 때 두 가지 중 어느 행동도 아닌 제3의 행동을 하는 것)</t>
+  </si>
+  <si>
+    <t>incompatible</t>
+  </si>
+  <si>
+    <t>양립할 수 없는</t>
+  </si>
+  <si>
+    <t>자극하다, 깨우다</t>
+  </si>
+  <si>
+    <t>differ from</t>
+  </si>
+  <si>
+    <t>~와 다르다</t>
+  </si>
+  <si>
+    <t>grooming</t>
+  </si>
+  <si>
+    <t>털 손질, 몸단장</t>
+  </si>
+  <si>
+    <t>. hurried</t>
+  </si>
+  <si>
+    <t>서두르는</t>
+  </si>
+  <si>
+    <t>discontinue</t>
+  </si>
+  <si>
+    <t>중단하다</t>
+  </si>
+  <si>
+    <t>elicit</t>
+  </si>
+  <si>
+    <t>이끌어 내다, 유도하다</t>
+  </si>
+  <si>
+    <t>irrelevant</t>
+  </si>
+  <si>
+    <t>무관한</t>
+  </si>
+  <si>
+    <t>territory</t>
+  </si>
+  <si>
+    <t>영역, 영토</t>
+  </si>
+  <si>
+    <t>inappropriate</t>
+  </si>
+  <si>
+    <t>부적절한</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>보안</t>
+  </si>
+  <si>
+    <t>unauthorized</t>
+  </si>
+  <si>
+    <t>무단의, 승인되지 않은</t>
+  </si>
+  <si>
+    <t>적용(성), 응용</t>
+  </si>
+  <si>
+    <t>dispute</t>
+  </si>
+  <si>
+    <t>분쟁, 다툼</t>
+  </si>
+  <si>
+    <t>practitioner</t>
+  </si>
+  <si>
+    <t>실무자</t>
+  </si>
+  <si>
+    <t>전송하다</t>
+  </si>
+  <si>
+    <t>scarce</t>
+  </si>
+  <si>
+    <t>부족한, 드문</t>
+  </si>
+  <si>
+    <t>특성의 기술, 성격의 묘사</t>
+  </si>
+  <si>
+    <t>위태롭게 하다, 타협하다</t>
+  </si>
+  <si>
+    <t>confidentiality</t>
+  </si>
+  <si>
+    <t>기밀성</t>
+  </si>
+  <si>
+    <t>integrity</t>
+  </si>
+  <si>
+    <t>진실성</t>
+  </si>
+  <si>
+    <t>보완하다; 보완</t>
+  </si>
+  <si>
+    <t>이해, 파악; 이해하다, 파악하다</t>
+  </si>
+  <si>
+    <t>통합하다, 완성하다</t>
+  </si>
+  <si>
+    <t>longitudinal</t>
+  </si>
+  <si>
+    <t>obese</t>
+  </si>
+  <si>
+    <t>비만인, 비만의</t>
+  </si>
+  <si>
+    <t>reward</t>
+  </si>
+  <si>
+    <t>보상을 주다, 보상하다; 보상</t>
+  </si>
+  <si>
+    <t>물질</t>
+  </si>
+  <si>
+    <t>biopsychological</t>
+  </si>
+  <si>
+    <t>생물 심리학의</t>
+  </si>
+  <si>
+    <t>구별하다, 구분하다</t>
+  </si>
+  <si>
+    <t>명백한, 노골적인</t>
+  </si>
+  <si>
+    <t>암묵적인, 내포된</t>
+  </si>
+  <si>
+    <t>chemist</t>
+  </si>
+  <si>
+    <t>화학자</t>
+  </si>
+  <si>
+    <t>primal</t>
+  </si>
+  <si>
+    <t>원초적인, 최초의, 가장 중요한</t>
+  </si>
+  <si>
+    <t>bypass</t>
+  </si>
+  <si>
+    <t>피해 가다, 우회하다; 우회 도로</t>
+  </si>
+  <si>
+    <t>이성적인</t>
+  </si>
+  <si>
+    <t>evolutionary</t>
+  </si>
+  <si>
+    <t>진화의, 진화상의</t>
+  </si>
+  <si>
+    <t>land-dwelling</t>
+  </si>
+  <si>
+    <t>육지에 거주하는</t>
+  </si>
+  <si>
+    <t>four-limbed</t>
+  </si>
+  <si>
+    <t>네 개의 팔다리를 가진</t>
+  </si>
+  <si>
+    <t>mutation</t>
+  </si>
+  <si>
+    <t>변이</t>
+  </si>
+  <si>
+    <t>reproductive</t>
+  </si>
+  <si>
+    <t>생식의</t>
+  </si>
+  <si>
+    <t>primarily</t>
+  </si>
+  <si>
+    <t>charge</t>
+  </si>
+  <si>
+    <t>돌진하다</t>
+  </si>
+  <si>
+    <t>outwit</t>
+  </si>
+  <si>
+    <t>~보다 한 수 앞서다</t>
+  </si>
+  <si>
+    <t>deception</t>
+  </si>
+  <si>
+    <t>속임수</t>
+  </si>
+  <si>
+    <t>daze</t>
+  </si>
+  <si>
+    <t>멍하게 하다</t>
+  </si>
+  <si>
+    <t>wrestle</t>
+  </si>
+  <si>
+    <t>씨름하다</t>
+  </si>
+  <si>
+    <t>fling back</t>
+  </si>
+  <si>
+    <t>뒤로 젖히다</t>
+  </si>
+  <si>
+    <t>cupboard</t>
+  </si>
+  <si>
+    <t>벽장, 찬장</t>
+  </si>
+  <si>
+    <t>unhook</t>
+  </si>
+  <si>
+    <t>풀다, 떼어 내다</t>
+  </si>
+  <si>
+    <t>catch</t>
+  </si>
+  <si>
+    <t>걸쇠, 자물쇠</t>
+  </si>
+  <si>
+    <t>utter</t>
+  </si>
+  <si>
+    <t>(입으로 어떤 소리를) 내다, (말을) 하다</t>
+  </si>
+  <si>
+    <t>놀람</t>
+  </si>
+  <si>
+    <t>strikingly</t>
+  </si>
+  <si>
+    <t>눈에 띄게, 두드러지게</t>
+  </si>
+  <si>
+    <t>girly</t>
+  </si>
+  <si>
+    <t>소녀적인, 소녀 같은</t>
+  </si>
+  <si>
+    <t>wizard</t>
+  </si>
+  <si>
+    <t>마법사</t>
+  </si>
+  <si>
+    <t>shatter</t>
+  </si>
+  <si>
+    <t>깨뜨리다</t>
+  </si>
+  <si>
+    <t>shiver</t>
+  </si>
+  <si>
+    <t>전율, 떨림; 떨다</t>
+  </si>
+  <si>
+    <t>등, 척추</t>
+  </si>
+  <si>
+    <t>vibrant</t>
+  </si>
+  <si>
+    <t>강렬한, 생기가 넘치는</t>
+  </si>
+  <si>
+    <t>be scared of</t>
+  </si>
+  <si>
+    <t>~을 무서워하다</t>
+  </si>
+  <si>
+    <t>safety gear</t>
+  </si>
+  <si>
+    <t>안전 장비</t>
+  </si>
+  <si>
+    <t>catch up on</t>
+  </si>
+  <si>
+    <t>~을 따라잡다</t>
+  </si>
+  <si>
+    <t>regular checkup</t>
+  </si>
+  <si>
+    <t>정기 검진</t>
+  </si>
+  <si>
+    <t>just around the comer</t>
+  </si>
+  <si>
+    <t>(거리 시간적으로) 바로 다가와서, 임박하여</t>
+  </si>
+  <si>
+    <t>calm one’s nerves</t>
+  </si>
+  <si>
+    <t>~의 불안을 진정시키다, ~의 긴장을 가라앉히다</t>
+  </si>
+  <si>
+    <t>take a deep breath</t>
+  </si>
+  <si>
+    <t>심호흡하다</t>
+  </si>
+  <si>
+    <t>come up with</t>
+  </si>
+  <si>
+    <t>~을 생각해 내다</t>
+  </si>
+  <si>
+    <t>self-motivating</t>
+  </si>
+  <si>
+    <t>스스로 동기를 부여하는</t>
+  </si>
+  <si>
+    <t>familiar with</t>
+  </si>
+  <si>
+    <t>~을 잘 아는, ~에 익숙한</t>
+  </si>
+  <si>
+    <t>caffeinated</t>
+  </si>
+  <si>
+    <t>카페인이 함유된</t>
+  </si>
+  <si>
+    <t>sales report</t>
+  </si>
+  <si>
+    <t>판매 보고서</t>
+  </si>
+  <si>
+    <t>heart disease</t>
+  </si>
+  <si>
+    <t>심장병</t>
+  </si>
+  <si>
+    <t>back pain</t>
+  </si>
+  <si>
+    <t>허리 통증</t>
+  </si>
+  <si>
+    <t>songwriter</t>
+  </si>
+  <si>
+    <t>(대중음악) 작곡가</t>
+  </si>
+  <si>
+    <t>영감</t>
+  </si>
+  <si>
+    <t>motivate</t>
+  </si>
+  <si>
+    <t>동기를 부여하다</t>
+  </si>
+  <si>
+    <t>follow in one’s footsteps</t>
+  </si>
+  <si>
+    <t>~이 걸어온 길을 따라 걷다, ~와 같은 직업을 갖다</t>
+  </si>
+  <si>
+    <t>look forward to doing</t>
+  </si>
+  <si>
+    <t>~하기를 고대하다</t>
+  </si>
+  <si>
+    <t>hacker</t>
+  </si>
+  <si>
+    <t>해커</t>
+  </si>
+  <si>
+    <t>put emphasis on</t>
+  </si>
+  <si>
+    <t>lock</t>
+  </si>
+  <si>
+    <t>자물쇠</t>
+  </si>
+  <si>
+    <t>hook</t>
+  </si>
+  <si>
+    <t>낚싯바늘, 갈고리</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>멋진, 훌륭한</t>
+  </si>
+  <si>
+    <t>impressed</t>
+  </si>
+  <si>
+    <t>감명받은</t>
+  </si>
+  <si>
+    <t>nursing home</t>
+  </si>
+  <si>
+    <t>요양원</t>
+  </si>
+  <si>
+    <t>drop by</t>
+  </si>
+  <si>
+    <t>~에 들르다</t>
+  </si>
+  <si>
+    <t>indoor</t>
+  </si>
+  <si>
+    <t>rock climbing</t>
+  </si>
+  <si>
+    <t>암벽 등반</t>
+  </si>
+  <si>
+    <t>아르바이트, 시간제 근무</t>
+  </si>
+  <si>
+    <t>grocery store</t>
+  </si>
+  <si>
+    <t>식료품점</t>
+  </si>
+  <si>
+    <t>go on a business trip</t>
+  </si>
+  <si>
+    <t>출장을 가다[다니다]</t>
+  </si>
+  <si>
+    <t>dumbbell</t>
+  </si>
+  <si>
+    <t>아령</t>
+  </si>
+  <si>
+    <t>range from ~ to ...</t>
+  </si>
+  <si>
+    <t>범위가 ~에서 …에 이르다</t>
+  </si>
+  <si>
+    <t>strap</t>
+  </si>
+  <si>
+    <t>끈</t>
+  </si>
+  <si>
+    <t>outdoor</t>
+  </si>
+  <si>
+    <t>야외의</t>
+  </si>
+  <si>
+    <t>자원봉사, (의)</t>
+  </si>
+  <si>
+    <t>animal shelter</t>
+  </si>
+  <si>
+    <t>동물 보호소</t>
+  </si>
+  <si>
+    <t>~에 신청하다</t>
+  </si>
+  <si>
+    <t>sign-up form</t>
+  </si>
+  <si>
+    <t>beekeeping</t>
+  </si>
+  <si>
+    <t>양봉</t>
+  </si>
+  <si>
+    <t>시골의</t>
+  </si>
+  <si>
+    <t>hands-on</t>
+  </si>
+  <si>
+    <t>실제의, 직접 해 보는</t>
+  </si>
+  <si>
+    <t>hive</t>
+  </si>
+  <si>
+    <t>벌통, 벌집</t>
+  </si>
+  <si>
+    <t>실시하다</t>
+  </si>
+  <si>
+    <t>사, 전의</t>
+  </si>
+  <si>
+    <t>issue</t>
+  </si>
+  <si>
+    <t>발부하다</t>
+  </si>
+  <si>
+    <t>take a nap</t>
+  </si>
+  <si>
+    <t>낮잠을 자다</t>
+  </si>
+  <si>
+    <t>register for</t>
+  </si>
+  <si>
+    <t>be supposed to do</t>
+  </si>
+  <si>
+    <t>~하기로 되어 있다</t>
+  </si>
+  <si>
+    <t>strengthen</t>
+  </si>
+  <si>
+    <t>강화하다</t>
+  </si>
+  <si>
+    <t>유대</t>
+  </si>
+  <si>
+    <t>show off</t>
+  </si>
+  <si>
+    <t>~을 자랑하다</t>
+  </si>
+  <si>
+    <t>(메시지를) 전하다</t>
+  </si>
+  <si>
+    <t>admit</t>
+  </si>
+  <si>
+    <t>인정하다</t>
+  </si>
+  <si>
+    <t>recipe</t>
+  </si>
+  <si>
+    <t>조리법, 요리법</t>
+  </si>
+  <si>
+    <t>take an interest in</t>
+  </si>
+  <si>
+    <t>~에 관심을 갖다</t>
+  </si>
+  <si>
+    <t>generation gap</t>
+  </si>
+  <si>
+    <t>세대 차이</t>
+  </si>
+  <si>
+    <t>말하다, 이야기하다</t>
+  </si>
+  <si>
+    <t>plantation</t>
+  </si>
+  <si>
+    <t>(커피, 설탕 등을 재배하는 대규모) 농장</t>
+  </si>
+  <si>
+    <t>unstable</t>
+  </si>
+  <si>
+    <t>불안정한</t>
+  </si>
+  <si>
+    <t>rainfall</t>
+  </si>
+  <si>
+    <t>강우</t>
+  </si>
+  <si>
+    <t>consistently</t>
+  </si>
+  <si>
+    <t>지속적으로, 끊임없이</t>
+  </si>
+  <si>
+    <t>wheat</t>
+  </si>
+  <si>
+    <t>밀</t>
+  </si>
+  <si>
+    <t>aquaculture</t>
+  </si>
+  <si>
+    <t>수산 양식</t>
+  </si>
+  <si>
+    <t>salmon</t>
+  </si>
+  <si>
+    <t>연어</t>
+  </si>
+  <si>
+    <t>reproduction</t>
+  </si>
+  <si>
+    <t>번식, 생식</t>
+  </si>
+  <si>
+    <t>reside</t>
+  </si>
+  <si>
+    <t>살다, 거주하다</t>
+  </si>
+  <si>
+    <t>propose</t>
+  </si>
+  <si>
+    <t>(계획 등을) 제안하다</t>
+  </si>
+  <si>
+    <t>parking garage</t>
+  </si>
+  <si>
+    <t>주차장 건물</t>
+  </si>
+  <si>
+    <t>resident</t>
+  </si>
+  <si>
+    <t>주민, 거주자</t>
+  </si>
+  <si>
+    <t>out of character</t>
+  </si>
+  <si>
+    <t>어울리지 않는, 조화되지 않는</t>
+  </si>
+  <si>
+    <t>prioritize</t>
+  </si>
+  <si>
+    <t>우선적으로 처리하다</t>
+  </si>
+  <si>
+    <t>undertake</t>
+  </si>
+  <si>
+    <t>착수하다</t>
+  </si>
+  <si>
+    <t>honk</t>
+  </si>
+  <si>
+    <t>경적을 울리다</t>
+  </si>
+  <si>
+    <t>dampness</t>
+  </si>
+  <si>
+    <t>축축함</t>
+  </si>
+  <si>
+    <t>business card</t>
+  </si>
+  <si>
+    <t>명함</t>
+  </si>
+  <si>
+    <t>발견하다, 찾다</t>
+  </si>
+  <si>
+    <t>reevaluation</t>
+  </si>
+  <si>
+    <t>재평가</t>
+  </si>
+  <si>
+    <t>selection</t>
+  </si>
+  <si>
+    <t>선정, 선발</t>
+  </si>
+  <si>
+    <t>procedure</t>
+  </si>
+  <si>
+    <t>과정</t>
+  </si>
+  <si>
+    <t>put off</t>
+  </si>
+  <si>
+    <t>취소하다, 미루다</t>
+  </si>
+  <si>
+    <t>up-to-date</t>
+  </si>
+  <si>
+    <t>최신의, 최근의</t>
+  </si>
+  <si>
+    <t>inviting</t>
+  </si>
+  <si>
+    <t>매력적인, 남의 눈을 끄는</t>
+  </si>
+  <si>
+    <t>overtake</t>
+  </si>
+  <si>
+    <t>덮치다</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>불확실성</t>
+  </si>
+  <si>
+    <t>지배하다, 다스리다</t>
+  </si>
+  <si>
+    <t>be regarded as</t>
+  </si>
+  <si>
+    <t>~으로 간주되다</t>
+  </si>
+  <si>
+    <t>frame</t>
+  </si>
+  <si>
+    <t>표현하다, 틀을 만들다</t>
+  </si>
+  <si>
+    <t>threatening</t>
+  </si>
+  <si>
+    <t>위협적인</t>
+  </si>
+  <si>
+    <t>potent</t>
+  </si>
+  <si>
+    <t>강력한</t>
+  </si>
+  <si>
+    <t>일</t>
+  </si>
+  <si>
+    <t>symptomatic</t>
+  </si>
+  <si>
+    <t>징후[증상]를 보이는</t>
+  </si>
+  <si>
+    <t>mood</t>
+  </si>
+  <si>
+    <t>분위기</t>
+  </si>
+  <si>
+    <t>fatalism</t>
+  </si>
+  <si>
+    <t>숙명[운명]론</t>
+  </si>
+  <si>
+    <t>sum up</t>
+  </si>
+  <si>
+    <t>~을 요약하다</t>
+  </si>
+  <si>
+    <t>catch-phrase</t>
+  </si>
+  <si>
+    <t>유명 문구, 선전 구호</t>
+  </si>
+  <si>
+    <t>catastrophic</t>
+  </si>
+  <si>
+    <t>대재앙의</t>
+  </si>
+  <si>
+    <t>flu epidemic</t>
+  </si>
+  <si>
+    <t>유행성 독감</t>
+  </si>
+  <si>
+    <t>mass</t>
+  </si>
+  <si>
+    <t>대량의</t>
+  </si>
+  <si>
+    <t>casualty</t>
+  </si>
+  <si>
+    <t>살상(자), 사상자</t>
+  </si>
+  <si>
+    <t>conclude with</t>
+  </si>
+  <si>
+    <t>~으로 끝을 맺다</t>
+  </si>
+  <si>
+    <t>defeatist</t>
+  </si>
+  <si>
+    <t>패배주의적인, 패배주의자의</t>
+  </si>
+  <si>
+    <t>refrain</t>
+  </si>
+  <si>
+    <t>자주 반복되는 어구[말], 후렴</t>
+  </si>
+  <si>
+    <t>암시적으로</t>
+  </si>
+  <si>
+    <t>명시적으로</t>
+  </si>
+  <si>
+    <t>call ~ into question</t>
+  </si>
+  <si>
+    <t>~에 의문을 제기하다</t>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>능력</t>
+  </si>
+  <si>
+    <t>destructive</t>
+  </si>
+  <si>
+    <t>파괴적인</t>
+  </si>
+  <si>
+    <t>즉각적인</t>
+  </si>
+  <si>
+    <t>intimate</t>
+  </si>
+  <si>
+    <t>친밀한</t>
+  </si>
+  <si>
+    <t>ring the alarm bell(s)</t>
+  </si>
+  <si>
+    <t>비상벨을 울리다</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>불안(감)</t>
+  </si>
+  <si>
+    <t>meditate</t>
+  </si>
+  <si>
+    <t>명상하다</t>
+  </si>
+  <si>
+    <t>on a regular basis</t>
+  </si>
+  <si>
+    <t>정기[규칙]적으로</t>
+  </si>
+  <si>
+    <t>소수, 소량</t>
+  </si>
+  <si>
+    <t>meditation</t>
+  </si>
+  <si>
+    <t>명상</t>
+  </si>
+  <si>
+    <t>quicken</t>
+  </si>
+  <si>
+    <t>빠르게 하다</t>
+  </si>
+  <si>
+    <t>pace</t>
+  </si>
+  <si>
+    <t>속도</t>
+  </si>
+  <si>
+    <t>benefit</t>
+  </si>
+  <si>
+    <t>이롭게 하다</t>
+  </si>
+  <si>
+    <t>react</t>
+  </si>
+  <si>
+    <t>반응하다</t>
+  </si>
+  <si>
+    <t>devote</t>
+  </si>
+  <si>
+    <t>(노력, 시간, 돈 등을) 쏟다[할애하다]</t>
+  </si>
+  <si>
+    <t>(신문텔레비전 라디오의) 보도[방송]</t>
+  </si>
+  <si>
+    <t>cease</t>
+  </si>
+  <si>
+    <t>중단되다</t>
+  </si>
+  <si>
+    <t>verify</t>
+  </si>
+  <si>
+    <t>(진실인지 정확한지) 확인하다</t>
+  </si>
+  <si>
+    <t>긴장(감)</t>
+  </si>
+  <si>
+    <t>a good deal of</t>
+  </si>
+  <si>
+    <t>많은 양의</t>
+  </si>
+  <si>
+    <t>위로하다</t>
+  </si>
+  <si>
+    <t>solidarity</t>
+  </si>
+  <si>
+    <t>연대 의식</t>
+  </si>
+  <si>
+    <t>highlight</t>
+  </si>
+  <si>
+    <t>강조하다</t>
+  </si>
+  <si>
+    <t>bravery</t>
+  </si>
+  <si>
+    <t>rescue worker</t>
+  </si>
+  <si>
+    <t>구조대원</t>
+  </si>
+  <si>
+    <t>reassure</t>
+  </si>
+  <si>
+    <t>안심시키다</t>
+  </si>
+  <si>
+    <t>fulfill</t>
+  </si>
+  <si>
+    <t>충족시키다</t>
+  </si>
+  <si>
+    <t>correlation</t>
+  </si>
+  <si>
+    <t>상호 관계, 연관성</t>
+  </si>
+  <si>
+    <t>assurance</t>
+  </si>
+  <si>
+    <t>확신, 보장, 확언</t>
+  </si>
+  <si>
+    <t>modulation</t>
+  </si>
+  <si>
+    <t>조정, 조절</t>
+  </si>
+  <si>
+    <t>tone</t>
+  </si>
+  <si>
+    <t>어조</t>
+  </si>
+  <si>
+    <t>nonverbal</t>
+  </si>
+  <si>
+    <t>비언어적인</t>
+  </si>
+  <si>
+    <t>mediate</t>
+  </si>
+  <si>
+    <t>조정하다, 중재하다</t>
+  </si>
+  <si>
+    <t>predominantly</t>
+  </si>
+  <si>
+    <t>대부분, 대개</t>
+  </si>
+  <si>
+    <t>(뇌의) 반구</t>
+  </si>
+  <si>
+    <t>posture</t>
+  </si>
+  <si>
+    <t>자세</t>
+  </si>
+  <si>
+    <t>blend</t>
+  </si>
+  <si>
+    <t>(뒤)섞이다</t>
   </si>
   <si>
     <t>striking</t>
   </si>
   <si>
-    <t>눈에 띄는, 두드러진</t>
-  </si>
-  <si>
-    <t>underlie</t>
-  </si>
-  <si>
-    <t>~의 근본 원인이 되다, ~의 밑에 있다</t>
-  </si>
-  <si>
-    <t>defect</t>
-  </si>
-  <si>
-    <t>결함</t>
-  </si>
-  <si>
-    <t>element</t>
-  </si>
-  <si>
-    <t>기본 원리, 요소</t>
-  </si>
-  <si>
-    <t>outmoded</t>
-  </si>
-  <si>
-    <t>시대에 뒤떨어진, 구식이 된</t>
-  </si>
-  <si>
-    <t>prevail</t>
-  </si>
-  <si>
-    <t>널리 행해지다, 만연하다</t>
-  </si>
-  <si>
-    <t>deploy</t>
-  </si>
-  <si>
-    <t>활용하다, 배치하다</t>
-  </si>
-  <si>
-    <t>개입</t>
-  </si>
-  <si>
-    <t>biostatistics</t>
-  </si>
-  <si>
-    <t>생물통계학</t>
-  </si>
-  <si>
-    <t>초기 (단계), 유아기</t>
-  </si>
-  <si>
-    <t>소멸시키다, 소모하다</t>
-  </si>
-  <si>
-    <t>문명</t>
-  </si>
-  <si>
-    <t>in harmony with</t>
-  </si>
-  <si>
-    <t>~와 조화를 이루며</t>
-  </si>
-  <si>
-    <t>disregard</t>
-  </si>
-  <si>
-    <t>무시; 무시하다</t>
-  </si>
-  <si>
-    <t>doomed</t>
-  </si>
-  <si>
-    <t>운이 다한, 불운한</t>
-  </si>
-  <si>
-    <t>archaeological</t>
-  </si>
-  <si>
-    <t>고고학의</t>
-  </si>
-  <si>
-    <t>degrade</t>
-  </si>
-  <si>
-    <t>저하시키다</t>
-  </si>
-  <si>
-    <t>infrastructure</t>
-  </si>
-  <si>
-    <t>(사회) 기반 시설</t>
-  </si>
-  <si>
-    <t>invader</t>
-  </si>
-  <si>
-    <t>침략자</t>
-  </si>
-  <si>
-    <t>wipe out</t>
-  </si>
-  <si>
-    <t>~을 몰살하다</t>
-  </si>
-  <si>
-    <t>enact</t>
-  </si>
-  <si>
-    <t>tease</t>
-  </si>
-  <si>
-    <t>놀리다, 희롱하다</t>
-  </si>
-  <si>
-    <t>ridicule</t>
-  </si>
-  <si>
-    <t>조롱, 조소</t>
-  </si>
-  <si>
-    <t>conformity</t>
-  </si>
-  <si>
-    <t>순응, 복종</t>
-  </si>
-  <si>
-    <t>prescriptive</t>
-  </si>
-  <si>
-    <t>지시하는, 규정하는</t>
-  </si>
-  <si>
-    <t>, inquire</t>
-  </si>
-  <si>
-    <t>질문을 하다, 묻다</t>
-  </si>
-  <si>
-    <t>표명하다, 나타내다</t>
-  </si>
-  <si>
-    <t>confusion</t>
-  </si>
-  <si>
-    <t>혼란, 혼동</t>
-  </si>
-  <si>
-    <t>adjust</t>
-  </si>
-  <si>
-    <t>조정하다, 조절하다</t>
-  </si>
-  <si>
-    <t>admittedly</t>
-  </si>
-  <si>
-    <t>인정하건대</t>
-  </si>
-  <si>
-    <t>상당히, 꽤</t>
-  </si>
-  <si>
-    <t>지식 분야</t>
-  </si>
-  <si>
-    <t>pave</t>
-  </si>
-  <si>
-    <t>(길을) 포장하다</t>
-  </si>
-  <si>
-    <t>urge</t>
-  </si>
-  <si>
-    <t>욕구, 충동</t>
-  </si>
-  <si>
-    <t>wander</t>
-  </si>
-  <si>
-    <t>옆길로 벗어나다</t>
-  </si>
-  <si>
-    <t>confront</t>
-  </si>
-  <si>
-    <t>맞서다</t>
-  </si>
-  <si>
-    <t>. argument</t>
-  </si>
-  <si>
-    <t>논거, 주장</t>
-  </si>
-  <si>
-    <t>ultraviolet light</t>
-  </si>
-  <si>
-    <t>자외선</t>
-  </si>
-  <si>
-    <t>academician</t>
-  </si>
-  <si>
-    <t>학자</t>
-  </si>
-  <si>
-    <t>방사선</t>
-  </si>
-  <si>
-    <t>명성 높은</t>
-  </si>
-  <si>
-    <t>rotate</t>
-  </si>
-  <si>
-    <t>회전시키다</t>
-  </si>
-  <si>
-    <t>read off</t>
-  </si>
-  <si>
-    <t>~을 읽다</t>
-  </si>
-  <si>
-    <t>wavelength</t>
-  </si>
-  <si>
-    <t>파장</t>
-  </si>
-  <si>
-    <t>전송하다</t>
-  </si>
-  <si>
-    <t>emission</t>
-  </si>
-  <si>
-    <t>방출</t>
-  </si>
-  <si>
-    <t>confirmation</t>
-  </si>
-  <si>
-    <t>확인</t>
-  </si>
-  <si>
-    <t>측정</t>
-  </si>
-  <si>
-    <t>detect</t>
-  </si>
-  <si>
-    <t>검출하다</t>
-  </si>
-  <si>
-    <t>physicist</t>
-  </si>
-  <si>
-    <t>물리학자</t>
-  </si>
-  <si>
-    <t>조사하다</t>
-  </si>
-  <si>
-    <t>suspect</t>
-  </si>
-  <si>
-    <t>~이 아닐까 하고 생각하다, 의심하다</t>
-  </si>
-  <si>
-    <t>illusion</t>
-  </si>
-  <si>
-    <t>착각</t>
-  </si>
-  <si>
-    <t>줄</t>
-  </si>
-  <si>
-    <t>fictive</t>
-  </si>
-  <si>
-    <t>허구의, 가공의</t>
-  </si>
-  <si>
-    <t>self-deception</t>
-  </si>
-  <si>
-    <t>자기기만</t>
-  </si>
-  <si>
-    <t>책임 의식, 전념, 약속</t>
-  </si>
-  <si>
-    <t>엄격함, 엄밀함</t>
-  </si>
-  <si>
-    <t>durable</t>
-  </si>
-  <si>
-    <t>튼튼한, 내구성이 있는</t>
-  </si>
-  <si>
-    <t>empower</t>
-  </si>
-  <si>
-    <t>~할 수 있도록 하다</t>
-  </si>
-  <si>
-    <t>특징; 특징으로 하다</t>
-  </si>
-  <si>
-    <t>약</t>
-  </si>
-  <si>
-    <t>treasure</t>
-  </si>
-  <si>
-    <t>간직하다</t>
-  </si>
-  <si>
-    <t>beforehand</t>
-  </si>
-  <si>
-    <t>사전에</t>
-  </si>
-  <si>
-    <t>compositional</t>
-  </si>
-  <si>
-    <t>구도의, 구성의, 작곡의</t>
-  </si>
-  <si>
-    <t>보완하다, 보충하다</t>
-  </si>
-  <si>
-    <t>unanticipated</t>
-  </si>
-  <si>
-    <t>예기치 않은</t>
-  </si>
-  <si>
-    <t>유기체, 생물</t>
-  </si>
-  <si>
-    <t>실현하다, 인식하다</t>
-  </si>
-  <si>
-    <t>medium</t>
-  </si>
-  <si>
-    <t>표현 수단, 매체</t>
-  </si>
-  <si>
-    <t>한계, 제한</t>
-  </si>
-  <si>
-    <t>translate</t>
-  </si>
-  <si>
-    <t>옮기다, 번역하다</t>
-  </si>
-  <si>
-    <t>구상, 이해</t>
-  </si>
-  <si>
-    <t>이동성</t>
-  </si>
-  <si>
-    <t>characteristic</t>
-  </si>
-  <si>
-    <t>특성, 특징</t>
-  </si>
-  <si>
-    <t>시행하다</t>
-  </si>
-  <si>
-    <t>모이다, 무리를 이루다</t>
-  </si>
-  <si>
-    <t>suburb</t>
-  </si>
-  <si>
-    <t>교외, 변두리</t>
-  </si>
-  <si>
-    <t>disperse</t>
-  </si>
-  <si>
-    <t>분산하다</t>
-  </si>
-  <si>
-    <t>찾아내다, ~의 장소를 알아내다</t>
-  </si>
-  <si>
-    <t>passion</t>
-  </si>
-  <si>
-    <t>열정</t>
-  </si>
-  <si>
-    <t>quit</t>
-  </si>
-  <si>
-    <t>그만두다, 포기하다</t>
-  </si>
-  <si>
-    <t>dayjob</t>
-  </si>
-  <si>
-    <t>본업</t>
-  </si>
-  <si>
-    <t>part-time job</t>
-  </si>
-  <si>
-    <t>시간제 근무[일]</t>
-  </si>
-  <si>
-    <t>endeavor</t>
-  </si>
-  <si>
-    <t>시도, 노력; 노력하다</t>
-  </si>
-  <si>
-    <t>independent</t>
-  </si>
-  <si>
-    <t>business owner</t>
-  </si>
-  <si>
-    <t>사업주, 경영주</t>
-  </si>
-  <si>
-    <t>biography</t>
-  </si>
-  <si>
-    <t>전기</t>
-  </si>
-  <si>
-    <t>pronounce</t>
-  </si>
-  <si>
-    <t>표명하다, 발음하다</t>
-  </si>
-  <si>
-    <t>enthusiastic</t>
-  </si>
-  <si>
-    <t>열광적인, 열렬한</t>
-  </si>
-  <si>
-    <t>handful</t>
-  </si>
-  <si>
-    <t>몇 안 되는 수, 소수, 한 움큼</t>
-  </si>
-  <si>
-    <t>impress</t>
-  </si>
-  <si>
-    <t>감명을 주다</t>
-  </si>
-  <si>
-    <t>드러나다, 표면화하다; 표면</t>
-  </si>
-  <si>
-    <t>제시하다, 제공하다</t>
-  </si>
-  <si>
-    <t>행성</t>
-  </si>
-  <si>
-    <t>galaxy</t>
-  </si>
-  <si>
-    <t>은하계, 은하수</t>
-  </si>
-  <si>
-    <t>extraterrestrial intelligence</t>
-  </si>
-  <si>
-    <t>외계 지적 생명체, 지능이 있는 외계인</t>
-  </si>
-  <si>
-    <t>scan</t>
-  </si>
-  <si>
-    <t>(무엇을 찾느라고 유심히) 살피다</t>
-  </si>
-  <si>
-    <t>intercept</t>
-  </si>
-  <si>
-    <t>(무전이나 방송 등을) 수신하다, 엿듣다, 가로채다</t>
-  </si>
-  <si>
-    <t>일관성 있는, 일치하는</t>
-  </si>
-  <si>
-    <t>fundamentally</t>
-  </si>
-  <si>
-    <t>근본적으로</t>
-  </si>
-  <si>
-    <t>진화하다</t>
-  </si>
-  <si>
-    <t>vastness</t>
-  </si>
-  <si>
-    <t>광활한 넓이, 광대함</t>
-  </si>
-  <si>
-    <t>interstellar</t>
-  </si>
-  <si>
-    <t>항성 간의, 별과 별 사이의</t>
-  </si>
-  <si>
-    <t>distance</t>
-  </si>
-  <si>
-    <t>거리</t>
-  </si>
-  <si>
-    <t>set ~ aside</t>
-  </si>
-  <si>
-    <t>~을 제쳐 두다, ~을 차치하다</t>
-  </si>
-  <si>
-    <t>astrobiology</t>
-  </si>
-  <si>
-    <t>우주생물학</t>
-  </si>
-  <si>
-    <t>make reference to</t>
-  </si>
-  <si>
-    <t>~을 언급하다, ~을 참조하다</t>
-  </si>
-  <si>
-    <t>앞당기다, 진척시키다</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>다루다, 처리하다</t>
-  </si>
-  <si>
-    <t>설명, 계좌</t>
-  </si>
-  <si>
-    <t>consciousness</t>
-  </si>
-  <si>
-    <t>의식</t>
-  </si>
-  <si>
-    <t>arise</t>
-  </si>
-  <si>
-    <t>비롯되다, 발생하다</t>
-  </si>
-  <si>
-    <t>부여하다, 배정하다</t>
-  </si>
-  <si>
-    <t>지각</t>
-  </si>
-  <si>
-    <t>fit into</t>
-  </si>
-  <si>
-    <t>~에 들어맞다</t>
-  </si>
-  <si>
-    <t>인과적인, 인과관계의</t>
-  </si>
-  <si>
-    <t>연쇄, 순서</t>
-  </si>
-  <si>
-    <t>crucially</t>
-  </si>
-  <si>
-    <t>결정적으로</t>
-  </si>
-  <si>
-    <t>agriculture</t>
-  </si>
-  <si>
-    <t>농업</t>
-  </si>
-  <si>
-    <t>기업, 산업</t>
-  </si>
-  <si>
-    <t>접근(권)</t>
-  </si>
-  <si>
-    <t>자원, 자산</t>
-  </si>
-  <si>
-    <t>보조금</t>
-  </si>
-  <si>
-    <t>대출</t>
-  </si>
-  <si>
-    <t>반드시 ~하게 하다, 보장하다</t>
-  </si>
-  <si>
-    <t>community board</t>
-  </si>
-  <si>
-    <t>주민 참여 위원회</t>
-  </si>
-  <si>
-    <t>taskforce</t>
-  </si>
-  <si>
-    <t>(특별) 전문위원회</t>
-  </si>
-  <si>
-    <t>연계되다, 명료하게 발음하다</t>
-  </si>
-  <si>
-    <t>basic commodities</t>
-  </si>
-  <si>
-    <t>(쌀 밀, 옥수수 등의) 기초 농산물, 기본 필수품</t>
-  </si>
-  <si>
-    <t>comprehensive</t>
-  </si>
-  <si>
-    <t>종합적인, 포괄적인</t>
-  </si>
-  <si>
-    <t>pavement</t>
-  </si>
-  <si>
-    <t>노면, 포장도로</t>
-  </si>
-  <si>
-    <t>~의 원인이 되다, ~에 기여하다</t>
-  </si>
-  <si>
-    <t>discomfort</t>
-  </si>
-  <si>
-    <t>불쾌(감), 불안(감)</t>
-  </si>
-  <si>
-    <t>respiratory</t>
-  </si>
-  <si>
-    <t>호흡의</t>
-  </si>
-  <si>
-    <t>cramp</t>
-  </si>
-  <si>
-    <t>경련</t>
-  </si>
-  <si>
-    <t>exhaustion</t>
-  </si>
-  <si>
-    <t>탈진, 소모</t>
-  </si>
-  <si>
-    <t>nonfatal</t>
-  </si>
-  <si>
-    <t>생명에 지장이 없는</t>
-  </si>
-  <si>
-    <t>heat stroke</t>
-  </si>
-  <si>
-    <t>열사병</t>
-  </si>
-  <si>
-    <t>mortality</t>
-  </si>
-  <si>
-    <t>사망, 사망자 수</t>
-  </si>
-  <si>
-    <t>heat wave</t>
-  </si>
-  <si>
-    <t>혹서기</t>
-  </si>
-  <si>
-    <t>abnormally</t>
-  </si>
-  <si>
-    <t>비정상적으로</t>
-  </si>
-  <si>
-    <t>sensitive</t>
-  </si>
-  <si>
-    <t>민감한, 예민한</t>
-  </si>
-  <si>
-    <t>heat event</t>
-  </si>
-  <si>
-    <t>폭염</t>
-  </si>
-  <si>
-    <t>abrupt</t>
-  </si>
-  <si>
-    <t>갑작스러운</t>
-  </si>
-  <si>
-    <t>인식하다, 깨닫다</t>
-  </si>
-  <si>
-    <t>근본적인, 기초적인</t>
-  </si>
-  <si>
-    <t>abstraction</t>
-  </si>
-  <si>
-    <t>추상 관념, 추출</t>
-  </si>
-  <si>
-    <t>(수학) 공식, 화학식 (pl. formulae)</t>
-  </si>
-  <si>
-    <t>in principle</t>
-  </si>
-  <si>
-    <t>원론적으로</t>
-  </si>
-  <si>
-    <t>comprehensible</t>
-  </si>
-  <si>
-    <t>이해될 수 있는</t>
-  </si>
-  <si>
-    <t>정확성, 정확도</t>
-  </si>
-  <si>
-    <t>correspond to</t>
-  </si>
-  <si>
-    <t>~와 부합하다, ~와 상응하다</t>
-  </si>
-  <si>
-    <t>emerging</t>
-  </si>
-  <si>
-    <t>신생의</t>
-  </si>
-  <si>
-    <t>ordered</t>
-  </si>
-  <si>
-    <t>질서 정연한, 정돈된</t>
-  </si>
-  <si>
-    <t>superstition</t>
-  </si>
-  <si>
-    <t>미신</t>
-  </si>
-  <si>
-    <t>(모습을) 드러내다, 나타나다</t>
-  </si>
-  <si>
-    <t>증명, 증거</t>
-  </si>
-  <si>
-    <t>triumph</t>
-  </si>
-  <si>
-    <t>승리하다</t>
-  </si>
-  <si>
-    <t>observation</t>
-  </si>
-  <si>
-    <t>관찰 (결과)</t>
-  </si>
-  <si>
-    <t>instinctive</t>
-  </si>
-  <si>
-    <t>본능적인, 본능의</t>
-  </si>
-  <si>
-    <t>충동; 권고하다</t>
-  </si>
-  <si>
-    <t>displacement activity</t>
-  </si>
-  <si>
-    <t>전위행동(두 가지의 모순된 자극이 주어졌을 때 두 가지 중 어느 행동도 아닌 제3의 행동을 하는 것)</t>
-  </si>
-  <si>
-    <t>incompatible</t>
-  </si>
-  <si>
-    <t>양립할 수 없는</t>
-  </si>
-  <si>
-    <t>자극하다, 깨우다</t>
-  </si>
-  <si>
-    <t>differ from</t>
-  </si>
-  <si>
-    <t>~와 다르다</t>
-  </si>
-  <si>
-    <t>grooming</t>
-  </si>
-  <si>
-    <t>털 손질, 몸단장</t>
-  </si>
-  <si>
-    <t>. hurried</t>
-  </si>
-  <si>
-    <t>서두르는</t>
-  </si>
-  <si>
-    <t>discontinue</t>
-  </si>
-  <si>
-    <t>중단하다</t>
-  </si>
-  <si>
-    <t>elicit</t>
-  </si>
-  <si>
-    <t>이끌어 내다, 유도하다</t>
-  </si>
-  <si>
-    <t>irrelevant</t>
-  </si>
-  <si>
-    <t>무관한</t>
-  </si>
-  <si>
-    <t>territory</t>
-  </si>
-  <si>
-    <t>영역, 영토</t>
-  </si>
-  <si>
-    <t>inappropriate</t>
-  </si>
-  <si>
-    <t>부적절한</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>보안</t>
-  </si>
-  <si>
-    <t>unauthorized</t>
-  </si>
-  <si>
-    <t>무단의, 승인되지 않은</t>
-  </si>
-  <si>
-    <t>적용(성), 응용</t>
-  </si>
-  <si>
-    <t>dispute</t>
-  </si>
-  <si>
-    <t>분쟁, 다툼</t>
-  </si>
-  <si>
-    <t>practitioner</t>
-  </si>
-  <si>
-    <t>실무자</t>
-  </si>
-  <si>
-    <t>scarce</t>
-  </si>
-  <si>
-    <t>부족한, 드문</t>
-  </si>
-  <si>
-    <t>특성의 기술, 성격의 묘사</t>
-  </si>
-  <si>
-    <t>위태롭게 하다, 타협하다</t>
-  </si>
-  <si>
-    <t>confidentiality</t>
-  </si>
-  <si>
-    <t>기밀성</t>
-  </si>
-  <si>
-    <t>integrity</t>
-  </si>
-  <si>
-    <t>진실성</t>
-  </si>
-  <si>
-    <t>보완하다; 보완</t>
-  </si>
-  <si>
-    <t>이해, 파악; 이해하다, 파악하다</t>
-  </si>
-  <si>
-    <t>통합하다, 완성하다</t>
-  </si>
-  <si>
-    <t>longitudinal</t>
-  </si>
-  <si>
-    <t>obese</t>
-  </si>
-  <si>
-    <t>비만인, 비만의</t>
-  </si>
-  <si>
-    <t>reward</t>
-  </si>
-  <si>
-    <t>보상을 주다, 보상하다; 보상</t>
-  </si>
-  <si>
-    <t>물질</t>
-  </si>
-  <si>
-    <t>biopsychological</t>
-  </si>
-  <si>
-    <t>생물 심리학의</t>
-  </si>
-  <si>
-    <t>구별하다, 구분하다</t>
-  </si>
-  <si>
-    <t>명백한, 노골적인</t>
-  </si>
-  <si>
-    <t>암묵적인, 내포된</t>
-  </si>
-  <si>
-    <t>chemist</t>
-  </si>
-  <si>
-    <t>화학자</t>
-  </si>
-  <si>
-    <t>primal</t>
-  </si>
-  <si>
-    <t>원초적인, 최초의, 가장 중요한</t>
-  </si>
-  <si>
-    <t>bypass</t>
-  </si>
-  <si>
-    <t>피해 가다, 우회하다; 우회 도로</t>
-  </si>
-  <si>
-    <t>이성적인</t>
-  </si>
-  <si>
-    <t>evolutionary</t>
-  </si>
-  <si>
-    <t>진화의, 진화상의</t>
-  </si>
-  <si>
-    <t>land-dwelling</t>
-  </si>
-  <si>
-    <t>육지에 거주하는</t>
-  </si>
-  <si>
-    <t>four-limbed</t>
-  </si>
-  <si>
-    <t>네 개의 팔다리를 가진</t>
-  </si>
-  <si>
-    <t>mutation</t>
-  </si>
-  <si>
-    <t>변이</t>
-  </si>
-  <si>
-    <t>reproductive</t>
-  </si>
-  <si>
-    <t>생식의</t>
-  </si>
-  <si>
-    <t>primarily</t>
-  </si>
-  <si>
-    <t>charge</t>
-  </si>
-  <si>
-    <t>돌진하다</t>
-  </si>
-  <si>
-    <t>outwit</t>
-  </si>
-  <si>
-    <t>~보다 한 수 앞서다</t>
-  </si>
-  <si>
-    <t>deception</t>
-  </si>
-  <si>
-    <t>속임수</t>
-  </si>
-  <si>
-    <t>daze</t>
-  </si>
-  <si>
-    <t>멍하게 하다</t>
-  </si>
-  <si>
-    <t>wrestle</t>
-  </si>
-  <si>
-    <t>씨름하다</t>
-  </si>
-  <si>
-    <t>fling back</t>
-  </si>
-  <si>
-    <t>뒤로 젖히다</t>
-  </si>
-  <si>
-    <t>cupboard</t>
-  </si>
-  <si>
-    <t>벽장, 찬장</t>
-  </si>
-  <si>
-    <t>unhook</t>
-  </si>
-  <si>
-    <t>풀다, 떼어 내다</t>
-  </si>
-  <si>
-    <t>catch</t>
-  </si>
-  <si>
-    <t>걸쇠, 자물쇠</t>
-  </si>
-  <si>
-    <t>utter</t>
-  </si>
-  <si>
-    <t>(입으로 어떤 소리를) 내다, (말을) 하다</t>
-  </si>
-  <si>
-    <t>놀람</t>
-  </si>
-  <si>
-    <t>strikingly</t>
-  </si>
-  <si>
-    <t>눈에 띄게, 두드러지게</t>
-  </si>
-  <si>
-    <t>girly</t>
-  </si>
-  <si>
-    <t>소녀적인, 소녀 같은</t>
-  </si>
-  <si>
-    <t>wizard</t>
-  </si>
-  <si>
-    <t>마법사</t>
-  </si>
-  <si>
-    <t>shatter</t>
-  </si>
-  <si>
-    <t>깨뜨리다</t>
-  </si>
-  <si>
-    <t>shiver</t>
-  </si>
-  <si>
-    <t>전율, 떨림; 떨다</t>
-  </si>
-  <si>
-    <t>등, 척추</t>
-  </si>
-  <si>
-    <t>vibrant</t>
-  </si>
-  <si>
-    <t>강렬한, 생기가 넘치는</t>
-  </si>
-  <si>
-    <t>be scared of</t>
-  </si>
-  <si>
-    <t>~을 무서워하다</t>
-  </si>
-  <si>
-    <t>safety gear</t>
-  </si>
-  <si>
-    <t>안전 장비</t>
-  </si>
-  <si>
-    <t>catch up on</t>
-  </si>
-  <si>
-    <t>~을 따라잡다</t>
-  </si>
-  <si>
-    <t>regular checkup</t>
-  </si>
-  <si>
-    <t>정기 검진</t>
-  </si>
-  <si>
-    <t>just around the comer</t>
-  </si>
-  <si>
-    <t>(거리 시간적으로) 바로 다가와서, 임박하여</t>
-  </si>
-  <si>
-    <t>calm one’s nerves</t>
-  </si>
-  <si>
-    <t>~의 불안을 진정시키다, ~의 긴장을 가라앉히다</t>
-  </si>
-  <si>
-    <t>take a deep breath</t>
-  </si>
-  <si>
-    <t>심호흡하다</t>
-  </si>
-  <si>
-    <t>come up with</t>
-  </si>
-  <si>
-    <t>~을 생각해 내다</t>
-  </si>
-  <si>
-    <t>self-motivating</t>
-  </si>
-  <si>
-    <t>스스로 동기를 부여하는</t>
-  </si>
-  <si>
-    <t>familiar with</t>
-  </si>
-  <si>
-    <t>~을 잘 아는, ~에 익숙한</t>
-  </si>
-  <si>
-    <t>caffeinated</t>
-  </si>
-  <si>
-    <t>카페인이 함유된</t>
-  </si>
-  <si>
-    <t>sales report</t>
-  </si>
-  <si>
-    <t>판매 보고서</t>
-  </si>
-  <si>
-    <t>heart disease</t>
-  </si>
-  <si>
-    <t>심장병</t>
-  </si>
-  <si>
-    <t>back pain</t>
-  </si>
-  <si>
-    <t>허리 통증</t>
-  </si>
-  <si>
-    <t>songwriter</t>
-  </si>
-  <si>
-    <t>(대중음악) 작곡가</t>
-  </si>
-  <si>
-    <t>영감</t>
-  </si>
-  <si>
-    <t>motivate</t>
-  </si>
-  <si>
-    <t>동기를 부여하다</t>
-  </si>
-  <si>
-    <t>follow in one’s footsteps</t>
-  </si>
-  <si>
-    <t>~이 걸어온 길을 따라 걷다, ~와 같은 직업을 갖다</t>
-  </si>
-  <si>
-    <t>look forward to doing</t>
-  </si>
-  <si>
-    <t>~하기를 고대하다</t>
-  </si>
-  <si>
-    <t>hacker</t>
-  </si>
-  <si>
-    <t>해커</t>
-  </si>
-  <si>
-    <t>put emphasis on</t>
-  </si>
-  <si>
-    <t>lock</t>
-  </si>
-  <si>
-    <t>자물쇠</t>
-  </si>
-  <si>
-    <t>hook</t>
-  </si>
-  <si>
-    <t>낚싯바늘, 갈고리</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>멋진, 훌륭한</t>
-  </si>
-  <si>
-    <t>impressed</t>
-  </si>
-  <si>
-    <t>감명받은</t>
-  </si>
-  <si>
-    <t>nursing home</t>
-  </si>
-  <si>
-    <t>요양원</t>
-  </si>
-  <si>
-    <t>drop by</t>
-  </si>
-  <si>
-    <t>~에 들르다</t>
-  </si>
-  <si>
-    <t>indoor</t>
-  </si>
-  <si>
-    <t>rock climbing</t>
-  </si>
-  <si>
-    <t>암벽 등반</t>
-  </si>
-  <si>
-    <t>아르바이트, 시간제 근무</t>
-  </si>
-  <si>
-    <t>grocery store</t>
-  </si>
-  <si>
-    <t>식료품점</t>
-  </si>
-  <si>
-    <t>go on a business trip</t>
-  </si>
-  <si>
-    <t>출장을 가다[다니다]</t>
-  </si>
-  <si>
-    <t>dumbbell</t>
-  </si>
-  <si>
-    <t>아령</t>
-  </si>
-  <si>
-    <t>range from ~ to ...</t>
-  </si>
-  <si>
-    <t>범위가 ~에서 …에 이르다</t>
-  </si>
-  <si>
-    <t>strap</t>
-  </si>
-  <si>
-    <t>끈</t>
-  </si>
-  <si>
-    <t>outdoor</t>
-  </si>
-  <si>
-    <t>야외의</t>
-  </si>
-  <si>
-    <t>자원봉사, (의)</t>
-  </si>
-  <si>
-    <t>animal shelter</t>
-  </si>
-  <si>
-    <t>동물 보호소</t>
-  </si>
-  <si>
-    <t>~에 신청하다</t>
-  </si>
-  <si>
-    <t>sign-up form</t>
-  </si>
-  <si>
-    <t>beekeeping</t>
-  </si>
-  <si>
-    <t>양봉</t>
-  </si>
-  <si>
-    <t>시골의</t>
-  </si>
-  <si>
-    <t>hands-on</t>
-  </si>
-  <si>
-    <t>실제의, 직접 해 보는</t>
-  </si>
-  <si>
-    <t>hive</t>
-  </si>
-  <si>
-    <t>벌통, 벌집</t>
-  </si>
-  <si>
-    <t>실시하다</t>
-  </si>
-  <si>
-    <t>사, 전의</t>
-  </si>
-  <si>
-    <t>issue</t>
-  </si>
-  <si>
-    <t>발부하다</t>
-  </si>
-  <si>
-    <t>take a nap</t>
-  </si>
-  <si>
-    <t>낮잠을 자다</t>
-  </si>
-  <si>
-    <t>register for</t>
-  </si>
-  <si>
-    <t>be supposed to do</t>
-  </si>
-  <si>
-    <t>~하기로 되어 있다</t>
-  </si>
-  <si>
-    <t>strengthen</t>
-  </si>
-  <si>
-    <t>강화하다</t>
-  </si>
-  <si>
-    <t>유대</t>
-  </si>
-  <si>
-    <t>show off</t>
-  </si>
-  <si>
-    <t>~을 자랑하다</t>
-  </si>
-  <si>
-    <t>(메시지를) 전하다</t>
-  </si>
-  <si>
-    <t>admit</t>
-  </si>
-  <si>
-    <t>인정하다</t>
-  </si>
-  <si>
-    <t>recipe</t>
-  </si>
-  <si>
-    <t>조리법, 요리법</t>
-  </si>
-  <si>
-    <t>take an interest in</t>
-  </si>
-  <si>
-    <t>~에 관심을 갖다</t>
-  </si>
-  <si>
-    <t>generation gap</t>
-  </si>
-  <si>
-    <t>세대 차이</t>
-  </si>
-  <si>
-    <t>말하다, 이야기하다</t>
-  </si>
-  <si>
-    <t>plantation</t>
-  </si>
-  <si>
-    <t>(커피, 설탕 등을 재배하는 대규모) 농장</t>
-  </si>
-  <si>
-    <t>unstable</t>
-  </si>
-  <si>
-    <t>불안정한</t>
-  </si>
-  <si>
-    <t>rainfall</t>
-  </si>
-  <si>
-    <t>강우</t>
-  </si>
-  <si>
-    <t>consistently</t>
-  </si>
-  <si>
-    <t>지속적으로, 끊임없이</t>
-  </si>
-  <si>
-    <t>wheat</t>
-  </si>
-  <si>
-    <t>밀</t>
-  </si>
-  <si>
-    <t>aquaculture</t>
-  </si>
-  <si>
-    <t>수산 양식</t>
-  </si>
-  <si>
-    <t>salmon</t>
-  </si>
-  <si>
-    <t>연어</t>
-  </si>
-  <si>
-    <t>reproduction</t>
-  </si>
-  <si>
-    <t>번식, 생식</t>
-  </si>
-  <si>
-    <t>reside</t>
-  </si>
-  <si>
-    <t>살다, 거주하다</t>
-  </si>
-  <si>
-    <t>propose</t>
-  </si>
-  <si>
-    <t>(계획 등을) 제안하다</t>
-  </si>
-  <si>
-    <t>parking garage</t>
-  </si>
-  <si>
-    <t>주차장 건물</t>
-  </si>
-  <si>
-    <t>resident</t>
-  </si>
-  <si>
-    <t>주민, 거주자</t>
-  </si>
-  <si>
-    <t>out of character</t>
-  </si>
-  <si>
-    <t>어울리지 않는, 조화되지 않는</t>
-  </si>
-  <si>
-    <t>prioritize</t>
-  </si>
-  <si>
-    <t>우선적으로 처리하다</t>
-  </si>
-  <si>
-    <t>undertake</t>
-  </si>
-  <si>
-    <t>착수하다</t>
-  </si>
-  <si>
-    <t>honk</t>
-  </si>
-  <si>
-    <t>경적을 울리다</t>
-  </si>
-  <si>
-    <t>dampness</t>
-  </si>
-  <si>
-    <t>축축함</t>
-  </si>
-  <si>
-    <t>business card</t>
-  </si>
-  <si>
-    <t>명함</t>
-  </si>
-  <si>
-    <t>발견하다, 찾다</t>
-  </si>
-  <si>
-    <t>reevaluation</t>
-  </si>
-  <si>
-    <t>재평가</t>
-  </si>
-  <si>
-    <t>selection</t>
-  </si>
-  <si>
-    <t>선정, 선발</t>
-  </si>
-  <si>
-    <t>procedure</t>
-  </si>
-  <si>
-    <t>과정</t>
-  </si>
-  <si>
-    <t>put off</t>
-  </si>
-  <si>
-    <t>취소하다, 미루다</t>
-  </si>
-  <si>
-    <t>up-to-date</t>
-  </si>
-  <si>
-    <t>최신의, 최근의</t>
-  </si>
-  <si>
-    <t>inviting</t>
-  </si>
-  <si>
-    <t>매력적인, 남의 눈을 끄는</t>
-  </si>
-  <si>
-    <t>overtake</t>
-  </si>
-  <si>
-    <t>덮치다</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>불확실성</t>
-  </si>
-  <si>
-    <t>지배하다, 다스리다</t>
-  </si>
-  <si>
-    <t>be regarded as</t>
-  </si>
-  <si>
-    <t>~으로 간주되다</t>
-  </si>
-  <si>
-    <t>frame</t>
-  </si>
-  <si>
-    <t>표현하다, 틀을 만들다</t>
-  </si>
-  <si>
-    <t>threatening</t>
-  </si>
-  <si>
-    <t>위협적인</t>
-  </si>
-  <si>
-    <t>potent</t>
-  </si>
-  <si>
-    <t>강력한</t>
-  </si>
-  <si>
-    <t>일</t>
-  </si>
-  <si>
-    <t>symptomatic</t>
-  </si>
-  <si>
-    <t>징후[증상]를 보이는</t>
-  </si>
-  <si>
-    <t>mood</t>
-  </si>
-  <si>
-    <t>분위기</t>
-  </si>
-  <si>
-    <t>fatalism</t>
-  </si>
-  <si>
-    <t>숙명[운명]론</t>
-  </si>
-  <si>
-    <t>sum up</t>
-  </si>
-  <si>
-    <t>~을 요약하다</t>
-  </si>
-  <si>
-    <t>catch-phrase</t>
-  </si>
-  <si>
-    <t>유명 문구, 선전 구호</t>
-  </si>
-  <si>
-    <t>catastrophic</t>
-  </si>
-  <si>
-    <t>대재앙의</t>
-  </si>
-  <si>
-    <t>flu epidemic</t>
-  </si>
-  <si>
-    <t>유행성 독감</t>
-  </si>
-  <si>
-    <t>mass</t>
-  </si>
-  <si>
-    <t>대량의</t>
-  </si>
-  <si>
-    <t>casualty</t>
-  </si>
-  <si>
-    <t>살상(자), 사상자</t>
-  </si>
-  <si>
-    <t>conclude with</t>
-  </si>
-  <si>
-    <t>~으로 끝을 맺다</t>
-  </si>
-  <si>
-    <t>defeatist</t>
-  </si>
-  <si>
-    <t>패배주의적인, 패배주의자의</t>
-  </si>
-  <si>
-    <t>refrain</t>
-  </si>
-  <si>
-    <t>자주 반복되는 어구[말], 후렴</t>
-  </si>
-  <si>
-    <t>암시적으로</t>
-  </si>
-  <si>
-    <t>명시적으로</t>
-  </si>
-  <si>
-    <t>call ~ into question</t>
-  </si>
-  <si>
-    <t>~에 의문을 제기하다</t>
-  </si>
-  <si>
-    <t>capacity</t>
-  </si>
-  <si>
-    <t>능력</t>
-  </si>
-  <si>
-    <t>destructive</t>
-  </si>
-  <si>
-    <t>파괴적인</t>
-  </si>
-  <si>
-    <t>즉각적인</t>
-  </si>
-  <si>
-    <t>intimate</t>
-  </si>
-  <si>
-    <t>친밀한</t>
-  </si>
-  <si>
-    <t>ring the alarm bell(s)</t>
-  </si>
-  <si>
-    <t>비상벨을 울리다</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>불안(감)</t>
-  </si>
-  <si>
-    <t>meditate</t>
-  </si>
-  <si>
-    <t>명상하다</t>
-  </si>
-  <si>
-    <t>on a regular basis</t>
-  </si>
-  <si>
-    <t>정기[규칙]적으로</t>
-  </si>
-  <si>
-    <t>소수, 소량</t>
-  </si>
-  <si>
-    <t>meditation</t>
-  </si>
-  <si>
-    <t>명상</t>
-  </si>
-  <si>
-    <t>quicken</t>
-  </si>
-  <si>
-    <t>빠르게 하다</t>
-  </si>
-  <si>
-    <t>pace</t>
-  </si>
-  <si>
-    <t>속도</t>
-  </si>
-  <si>
-    <t>benefit</t>
-  </si>
-  <si>
-    <t>이롭게 하다</t>
-  </si>
-  <si>
-    <t>react</t>
-  </si>
-  <si>
-    <t>반응하다</t>
-  </si>
-  <si>
-    <t>devote</t>
-  </si>
-  <si>
-    <t>(노력, 시간, 돈 등을) 쏟다[할애하다]</t>
-  </si>
-  <si>
-    <t>(신문텔레비전 라디오의) 보도[방송]</t>
-  </si>
-  <si>
-    <t>cease</t>
-  </si>
-  <si>
-    <t>중단되다</t>
-  </si>
-  <si>
-    <t>verify</t>
-  </si>
-  <si>
-    <t>(진실인지 정확한지) 확인하다</t>
-  </si>
-  <si>
-    <t>긴장(감)</t>
-  </si>
-  <si>
-    <t>a good deal of</t>
-  </si>
-  <si>
-    <t>많은 양의</t>
-  </si>
-  <si>
-    <t>위로하다</t>
-  </si>
-  <si>
-    <t>solidarity</t>
-  </si>
-  <si>
-    <t>연대 의식</t>
-  </si>
-  <si>
-    <t>highlight</t>
-  </si>
-  <si>
-    <t>강조하다</t>
-  </si>
-  <si>
-    <t>bravery</t>
-  </si>
-  <si>
-    <t>rescue worker</t>
-  </si>
-  <si>
-    <t>구조대원</t>
-  </si>
-  <si>
-    <t>reassure</t>
-  </si>
-  <si>
-    <t>안심시키다</t>
-  </si>
-  <si>
-    <t>fulfill</t>
-  </si>
-  <si>
-    <t>충족시키다</t>
-  </si>
-  <si>
-    <t>correlation</t>
-  </si>
-  <si>
-    <t>상호 관계, 연관성</t>
-  </si>
-  <si>
-    <t>assurance</t>
-  </si>
-  <si>
-    <t>확신, 보장, 확언</t>
-  </si>
-  <si>
-    <t>modulation</t>
-  </si>
-  <si>
-    <t>조정, 조절</t>
-  </si>
-  <si>
-    <t>tone</t>
-  </si>
-  <si>
-    <t>어조</t>
-  </si>
-  <si>
-    <t>nonverbal</t>
-  </si>
-  <si>
-    <t>비언어적인</t>
-  </si>
-  <si>
-    <t>mediate</t>
-  </si>
-  <si>
-    <t>조정하다, 중재하다</t>
-  </si>
-  <si>
-    <t>predominantly</t>
-  </si>
-  <si>
-    <t>대부분, 대개</t>
-  </si>
-  <si>
-    <t>(뇌의) 반구</t>
-  </si>
-  <si>
-    <t>posture</t>
-  </si>
-  <si>
-    <t>자세</t>
-  </si>
-  <si>
-    <t>blend</t>
-  </si>
-  <si>
-    <t>(뒤)섞이다</t>
-  </si>
-  <si>
     <t>놀라운, 눈에 띄는</t>
   </si>
   <si>
@@ -13148,6 +12850,54 @@
   </si>
   <si>
     <t>교육, 지도</t>
+  </si>
+  <si>
+    <t>안녕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호아ㅏㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴㅇㄹㅁㄴㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴㅁㄹㄴㅁㅇㄹ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅁㄴㅇㄹ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asdfsad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asdfasdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sadfsadf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asdfasdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asdfasdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sadfasdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asdfasdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -20422,566 +20172,6 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B68"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>1507</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3624</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>3684</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3685</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>1730</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3686</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>3687</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3688</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>3689</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3690</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>3691</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3692</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>3693</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3694</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>3695</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3696</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>3697</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3698</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>3699</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3700</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>552</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3701</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>3702</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3703</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>740</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3704</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>3325</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3705</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>734</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3706</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>3707</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3708</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>3709</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3710</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>3711</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3712</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>3713</v>
-      </c>
-      <c r="B19" t="s">
-        <v>3714</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>3715</v>
-      </c>
-      <c r="B20" t="s">
-        <v>3716</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>986</v>
-      </c>
-      <c r="B21" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>3717</v>
-      </c>
-      <c r="B22" t="s">
-        <v>3718</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>1482</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1483</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>3719</v>
-      </c>
-      <c r="B24" t="s">
-        <v>3720</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>3721</v>
-      </c>
-      <c r="B25" t="s">
-        <v>3722</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>656</v>
-      </c>
-      <c r="B26" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>3210</v>
-      </c>
-      <c r="B27" t="s">
-        <v>3211</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>3723</v>
-      </c>
-      <c r="B28" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>3724</v>
-      </c>
-      <c r="B29" t="s">
-        <v>3725</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
-        <v>3726</v>
-      </c>
-      <c r="B30" t="s">
-        <v>3727</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>2302</v>
-      </c>
-      <c r="B31" t="s">
-        <v>2303</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
-        <v>3728</v>
-      </c>
-      <c r="B32" t="s">
-        <v>3729</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>1802</v>
-      </c>
-      <c r="B33" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
-        <v>3730</v>
-      </c>
-      <c r="B34" t="s">
-        <v>3731</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>3732</v>
-      </c>
-      <c r="B35" t="s">
-        <v>3733</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>2025</v>
-      </c>
-      <c r="B36" t="s">
-        <v>3734</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
-        <v>3735</v>
-      </c>
-      <c r="B37" t="s">
-        <v>3736</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
-        <v>3737</v>
-      </c>
-      <c r="B38" t="s">
-        <v>3738</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
-        <v>3739</v>
-      </c>
-      <c r="B39" t="s">
-        <v>3740</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
-        <v>2507</v>
-      </c>
-      <c r="B40" t="s">
-        <v>3741</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
-        <v>1673</v>
-      </c>
-      <c r="B41" t="s">
-        <v>3742</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
-        <v>3743</v>
-      </c>
-      <c r="B42" t="s">
-        <v>3744</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A43" t="s">
-        <v>3745</v>
-      </c>
-      <c r="B43" t="s">
-        <v>3746</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
-        <v>3747</v>
-      </c>
-      <c r="B44" t="s">
-        <v>3748</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
-        <v>3749</v>
-      </c>
-      <c r="B45" t="s">
-        <v>3750</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
-        <v>3751</v>
-      </c>
-      <c r="B46" t="s">
-        <v>3752</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
-        <v>3753</v>
-      </c>
-      <c r="B47" t="s">
-        <v>3754</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
-        <v>3755</v>
-      </c>
-      <c r="B48" t="s">
-        <v>3756</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A49" t="s">
-        <v>348</v>
-      </c>
-      <c r="B49" t="s">
-        <v>3757</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A50" t="s">
-        <v>2644</v>
-      </c>
-      <c r="B50" t="s">
-        <v>3758</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A51" t="s">
-        <v>3759</v>
-      </c>
-      <c r="B51" t="s">
-        <v>3760</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
-        <v>3761</v>
-      </c>
-      <c r="B52" t="s">
-        <v>3762</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A53" t="s">
-        <v>3763</v>
-      </c>
-      <c r="B53" t="s">
-        <v>3764</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A54" t="s">
-        <v>3387</v>
-      </c>
-      <c r="B54" t="s">
-        <v>3765</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A55" t="s">
-        <v>3766</v>
-      </c>
-      <c r="B55" t="s">
-        <v>3767</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A56" t="s">
-        <v>3768</v>
-      </c>
-      <c r="B56" t="s">
-        <v>3769</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A57" t="s">
-        <v>2742</v>
-      </c>
-      <c r="B57" t="s">
-        <v>3770</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A58" t="s">
-        <v>3771</v>
-      </c>
-      <c r="B58" t="s">
-        <v>3772</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A59" t="s">
-        <v>188</v>
-      </c>
-      <c r="B59" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A60" t="s">
-        <v>3773</v>
-      </c>
-      <c r="B60" t="s">
-        <v>3774</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A61" t="s">
-        <v>2997</v>
-      </c>
-      <c r="B61" t="s">
-        <v>3775</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A62" t="s">
-        <v>3776</v>
-      </c>
-      <c r="B62" t="s">
-        <v>3777</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A63" t="s">
-        <v>3778</v>
-      </c>
-      <c r="B63" t="s">
-        <v>3779</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A64" t="s">
-        <v>3242</v>
-      </c>
-      <c r="B64" t="s">
-        <v>3780</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A65" t="s">
-        <v>3781</v>
-      </c>
-      <c r="B65" t="s">
-        <v>3782</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A66" t="s">
-        <v>3783</v>
-      </c>
-      <c r="B66" t="s">
-        <v>3784</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A67" t="s">
-        <v>3177</v>
-      </c>
-      <c r="B67" t="s">
-        <v>3785</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A68" t="s">
-        <v>3000</v>
-      </c>
-      <c r="B68" t="s">
-        <v>3786</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B115"/>
   <sheetViews>
     <sheetView topLeftCell="A109" workbookViewId="0">
@@ -20992,18 +20182,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>3787</v>
+        <v>3684</v>
       </c>
       <c r="B1" t="s">
-        <v>3788</v>
+        <v>3685</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>3789</v>
+        <v>3686</v>
       </c>
       <c r="B2" t="s">
-        <v>3790</v>
+        <v>3687</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
@@ -21011,7 +20201,7 @@
         <v>3510</v>
       </c>
       <c r="B3" t="s">
-        <v>3791</v>
+        <v>3688</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
@@ -21019,15 +20209,15 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>3792</v>
+        <v>3689</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>3793</v>
+        <v>3690</v>
       </c>
       <c r="B5" t="s">
-        <v>3794</v>
+        <v>3691</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -21040,18 +20230,18 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>3795</v>
+        <v>3692</v>
       </c>
       <c r="B7" t="s">
-        <v>3796</v>
+        <v>3693</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>3797</v>
+        <v>3694</v>
       </c>
       <c r="B8" t="s">
-        <v>3798</v>
+        <v>3695</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
@@ -21059,15 +20249,15 @@
         <v>1301</v>
       </c>
       <c r="B9" t="s">
-        <v>3799</v>
+        <v>3696</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>3800</v>
+        <v>3697</v>
       </c>
       <c r="B10" t="s">
-        <v>3801</v>
+        <v>3698</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
@@ -21075,7 +20265,7 @@
         <v>1541</v>
       </c>
       <c r="B11" t="s">
-        <v>3802</v>
+        <v>3699</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
@@ -21083,15 +20273,15 @@
         <v>1368</v>
       </c>
       <c r="B12" t="s">
-        <v>3803</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>3804</v>
+        <v>3701</v>
       </c>
       <c r="B13" t="s">
-        <v>3805</v>
+        <v>3702</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
@@ -21099,15 +20289,15 @@
         <v>2423</v>
       </c>
       <c r="B14" t="s">
-        <v>3806</v>
+        <v>3703</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>3807</v>
+        <v>3704</v>
       </c>
       <c r="B15" t="s">
-        <v>3808</v>
+        <v>3705</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
@@ -21115,7 +20305,7 @@
         <v>412</v>
       </c>
       <c r="B16" t="s">
-        <v>3809</v>
+        <v>3706</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
@@ -21123,15 +20313,15 @@
         <v>288</v>
       </c>
       <c r="B17" t="s">
-        <v>3810</v>
+        <v>3707</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>3811</v>
+        <v>3708</v>
       </c>
       <c r="B18" t="s">
-        <v>3812</v>
+        <v>3709</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
@@ -21139,7 +20329,7 @@
         <v>2142</v>
       </c>
       <c r="B19" t="s">
-        <v>3813</v>
+        <v>3710</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
@@ -21147,23 +20337,23 @@
         <v>566</v>
       </c>
       <c r="B20" t="s">
-        <v>3814</v>
+        <v>3711</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>3815</v>
+        <v>3712</v>
       </c>
       <c r="B21" t="s">
-        <v>3816</v>
+        <v>3713</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>3817</v>
+        <v>3714</v>
       </c>
       <c r="B22" t="s">
-        <v>3818</v>
+        <v>3715</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
@@ -21179,31 +20369,31 @@
         <v>1875</v>
       </c>
       <c r="B24" t="s">
-        <v>3819</v>
+        <v>3716</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>3820</v>
+        <v>3717</v>
       </c>
       <c r="B25" t="s">
-        <v>3821</v>
+        <v>3718</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>3822</v>
+        <v>3719</v>
       </c>
       <c r="B26" t="s">
-        <v>3823</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>3824</v>
+        <v>3721</v>
       </c>
       <c r="B27" t="s">
-        <v>3825</v>
+        <v>3722</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
@@ -21216,23 +20406,23 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>3826</v>
+        <v>3723</v>
       </c>
       <c r="B29" t="s">
-        <v>3827</v>
+        <v>3724</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>3828</v>
+        <v>3725</v>
       </c>
       <c r="B30" t="s">
-        <v>3829</v>
+        <v>3726</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>3830</v>
+        <v>3727</v>
       </c>
       <c r="B31" t="s">
         <v>3043</v>
@@ -21240,50 +20430,50 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>3831</v>
+        <v>3728</v>
       </c>
       <c r="B32" t="s">
-        <v>3832</v>
+        <v>3729</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>3833</v>
+        <v>3730</v>
       </c>
       <c r="B33" t="s">
-        <v>3834</v>
+        <v>3731</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>3835</v>
+        <v>3732</v>
       </c>
       <c r="B34" t="s">
-        <v>3836</v>
+        <v>3733</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>3837</v>
+        <v>3734</v>
       </c>
       <c r="B35" t="s">
-        <v>3838</v>
+        <v>3735</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>3839</v>
+        <v>3736</v>
       </c>
       <c r="B36" t="s">
-        <v>3840</v>
+        <v>3737</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>3841</v>
+        <v>3738</v>
       </c>
       <c r="B37" t="s">
-        <v>3842</v>
+        <v>3739</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
@@ -21291,7 +20481,7 @@
         <v>1320</v>
       </c>
       <c r="B38" t="s">
-        <v>3843</v>
+        <v>3740</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
@@ -21299,7 +20489,7 @@
         <v>1120</v>
       </c>
       <c r="B39" t="s">
-        <v>3844</v>
+        <v>3741</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
@@ -21307,7 +20497,7 @@
         <v>994</v>
       </c>
       <c r="B40" t="s">
-        <v>3845</v>
+        <v>3742</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
@@ -21315,39 +20505,39 @@
         <v>734</v>
       </c>
       <c r="B41" t="s">
-        <v>3706</v>
+        <v>3743</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>3846</v>
+        <v>3744</v>
       </c>
       <c r="B42" t="s">
-        <v>3847</v>
+        <v>3745</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>3848</v>
+        <v>3746</v>
       </c>
       <c r="B43" t="s">
-        <v>3849</v>
+        <v>3747</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>3850</v>
+        <v>3748</v>
       </c>
       <c r="B44" t="s">
-        <v>3851</v>
+        <v>3749</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>3852</v>
+        <v>3750</v>
       </c>
       <c r="B45" t="s">
-        <v>3853</v>
+        <v>3751</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.4">
@@ -21355,15 +20545,15 @@
         <v>166</v>
       </c>
       <c r="B46" t="s">
-        <v>3854</v>
+        <v>3752</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>3855</v>
+        <v>3753</v>
       </c>
       <c r="B47" t="s">
-        <v>3856</v>
+        <v>3754</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.4">
@@ -21371,31 +20561,31 @@
         <v>390</v>
       </c>
       <c r="B48" t="s">
-        <v>3857</v>
+        <v>3755</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>3858</v>
+        <v>3756</v>
       </c>
       <c r="B49" t="s">
-        <v>3859</v>
+        <v>3757</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>3860</v>
+        <v>3758</v>
       </c>
       <c r="B50" t="s">
-        <v>3861</v>
+        <v>3759</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>3862</v>
+        <v>3760</v>
       </c>
       <c r="B51" t="s">
-        <v>3863</v>
+        <v>3761</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.4">
@@ -21408,26 +20598,26 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>3864</v>
+        <v>3762</v>
       </c>
       <c r="B53" t="s">
-        <v>3865</v>
+        <v>3763</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>3866</v>
+        <v>3764</v>
       </c>
       <c r="B54" t="s">
-        <v>3867</v>
+        <v>3765</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>3868</v>
+        <v>3766</v>
       </c>
       <c r="B55" t="s">
-        <v>3869</v>
+        <v>3767</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.4">
@@ -21435,15 +20625,15 @@
         <v>937</v>
       </c>
       <c r="B56" t="s">
-        <v>3870</v>
+        <v>3768</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>3871</v>
+        <v>3769</v>
       </c>
       <c r="B57" t="s">
-        <v>3872</v>
+        <v>3770</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.4">
@@ -21451,23 +20641,23 @@
         <v>2814</v>
       </c>
       <c r="B58" t="s">
-        <v>3873</v>
+        <v>3771</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>3874</v>
+        <v>3772</v>
       </c>
       <c r="B59" t="s">
-        <v>3875</v>
+        <v>3773</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>3876</v>
+        <v>3774</v>
       </c>
       <c r="B60" t="s">
-        <v>3877</v>
+        <v>3775</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.4">
@@ -21475,7 +20665,7 @@
         <v>88</v>
       </c>
       <c r="B61" t="s">
-        <v>3878</v>
+        <v>3776</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.4">
@@ -21483,15 +20673,15 @@
         <v>2302</v>
       </c>
       <c r="B62" t="s">
-        <v>3879</v>
+        <v>3777</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>3880</v>
+        <v>3778</v>
       </c>
       <c r="B63" t="s">
-        <v>3881</v>
+        <v>3779</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.4">
@@ -21499,7 +20689,7 @@
         <v>1056</v>
       </c>
       <c r="B64" t="s">
-        <v>3882</v>
+        <v>3780</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.4">
@@ -21507,23 +20697,23 @@
         <v>3394</v>
       </c>
       <c r="B65" t="s">
-        <v>3883</v>
+        <v>3781</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>3884</v>
+        <v>3782</v>
       </c>
       <c r="B66" t="s">
-        <v>3885</v>
+        <v>3783</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>3886</v>
+        <v>3784</v>
       </c>
       <c r="B67" t="s">
-        <v>3887</v>
+        <v>3785</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.4">
@@ -21539,7 +20729,7 @@
         <v>1484</v>
       </c>
       <c r="B69" t="s">
-        <v>3888</v>
+        <v>3786</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.4">
@@ -21555,7 +20745,7 @@
         <v>2434</v>
       </c>
       <c r="B71" t="s">
-        <v>3889</v>
+        <v>3787</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.4">
@@ -21563,7 +20753,7 @@
         <v>2445</v>
       </c>
       <c r="B72" t="s">
-        <v>3890</v>
+        <v>3788</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.4">
@@ -21571,7 +20761,7 @@
         <v>1275</v>
       </c>
       <c r="B73" t="s">
-        <v>3891</v>
+        <v>3789</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.4">
@@ -21579,7 +20769,7 @@
         <v>1611</v>
       </c>
       <c r="B74" t="s">
-        <v>3892</v>
+        <v>3790</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.4">
@@ -21587,23 +20777,23 @@
         <v>732</v>
       </c>
       <c r="B75" t="s">
-        <v>3893</v>
+        <v>3791</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>3894</v>
+        <v>3792</v>
       </c>
       <c r="B76" t="s">
-        <v>3895</v>
+        <v>3793</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>3896</v>
+        <v>3794</v>
       </c>
       <c r="B77" t="s">
-        <v>3897</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.4">
@@ -21619,31 +20809,31 @@
         <v>3385</v>
       </c>
       <c r="B79" t="s">
-        <v>3898</v>
+        <v>3796</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>3899</v>
+        <v>3797</v>
       </c>
       <c r="B80" t="s">
-        <v>3900</v>
+        <v>3798</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>3901</v>
+        <v>3799</v>
       </c>
       <c r="B81" t="s">
-        <v>3902</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>3903</v>
+        <v>3801</v>
       </c>
       <c r="B82" t="s">
-        <v>3904</v>
+        <v>3802</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.4">
@@ -21651,87 +20841,87 @@
         <v>369</v>
       </c>
       <c r="B83" t="s">
-        <v>3905</v>
+        <v>3803</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>3906</v>
+        <v>3804</v>
       </c>
       <c r="B84" t="s">
-        <v>3907</v>
+        <v>3805</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>3908</v>
+        <v>3806</v>
       </c>
       <c r="B85" t="s">
-        <v>3909</v>
+        <v>3807</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>3910</v>
+        <v>3808</v>
       </c>
       <c r="B86" t="s">
-        <v>3911</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>3912</v>
+        <v>3810</v>
       </c>
       <c r="B87" t="s">
-        <v>3913</v>
+        <v>3811</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>3914</v>
+        <v>3812</v>
       </c>
       <c r="B88" t="s">
-        <v>3915</v>
+        <v>3813</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>3916</v>
+        <v>3814</v>
       </c>
       <c r="B89" t="s">
-        <v>3917</v>
+        <v>3815</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>3918</v>
+        <v>3816</v>
       </c>
       <c r="B90" t="s">
-        <v>3919</v>
+        <v>3817</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>3920</v>
+        <v>3818</v>
       </c>
       <c r="B91" t="s">
-        <v>3921</v>
+        <v>3819</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>3922</v>
+        <v>3820</v>
       </c>
       <c r="B92" t="s">
-        <v>3923</v>
+        <v>3821</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>3924</v>
+        <v>3822</v>
       </c>
       <c r="B93" t="s">
-        <v>3925</v>
+        <v>3823</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.4">
@@ -21744,18 +20934,18 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>3926</v>
+        <v>3824</v>
       </c>
       <c r="B95" t="s">
-        <v>3927</v>
+        <v>3825</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>3928</v>
+        <v>3826</v>
       </c>
       <c r="B96" t="s">
-        <v>3929</v>
+        <v>3827</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.4">
@@ -21763,7 +20953,7 @@
         <v>558</v>
       </c>
       <c r="B97" t="s">
-        <v>3930</v>
+        <v>3828</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.4">
@@ -21771,15 +20961,15 @@
         <v>1351</v>
       </c>
       <c r="B98" t="s">
-        <v>3931</v>
+        <v>3829</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>3932</v>
+        <v>3830</v>
       </c>
       <c r="B99" t="s">
-        <v>3933</v>
+        <v>3831</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.4">
@@ -21795,23 +20985,23 @@
         <v>3404</v>
       </c>
       <c r="B101" t="s">
-        <v>3934</v>
+        <v>3832</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
-        <v>3935</v>
+        <v>3833</v>
       </c>
       <c r="B102" t="s">
-        <v>3936</v>
+        <v>3834</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
-        <v>3937</v>
+        <v>3835</v>
       </c>
       <c r="B103" t="s">
-        <v>3938</v>
+        <v>3836</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.4">
@@ -21819,7 +21009,7 @@
         <v>1547</v>
       </c>
       <c r="B104" t="s">
-        <v>3939</v>
+        <v>3837</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.4">
@@ -21832,10 +21022,10 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>3940</v>
+        <v>3838</v>
       </c>
       <c r="B106" t="s">
-        <v>3941</v>
+        <v>3839</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.4">
@@ -21856,18 +21046,18 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
-        <v>3942</v>
+        <v>3840</v>
       </c>
       <c r="B109" t="s">
-        <v>3943</v>
+        <v>3841</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>3944</v>
+        <v>3842</v>
       </c>
       <c r="B110" t="s">
-        <v>3945</v>
+        <v>3843</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.4">
@@ -21880,10 +21070,10 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
-        <v>3946</v>
+        <v>3844</v>
       </c>
       <c r="B112" t="s">
-        <v>3947</v>
+        <v>3845</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.4">
@@ -21891,7 +21081,7 @@
         <v>360</v>
       </c>
       <c r="B113" t="s">
-        <v>3948</v>
+        <v>3846</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.4">
@@ -21899,15 +21089,15 @@
         <v>1314</v>
       </c>
       <c r="B114" t="s">
-        <v>3949</v>
+        <v>3847</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
-        <v>3950</v>
+        <v>3848</v>
       </c>
       <c r="B115" t="s">
-        <v>3951</v>
+        <v>3849</v>
       </c>
     </row>
   </sheetData>
@@ -21916,7 +21106,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B74"/>
   <sheetViews>
@@ -21928,42 +21118,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>3952</v>
+        <v>3850</v>
       </c>
       <c r="B1" t="s">
-        <v>3953</v>
+        <v>3851</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>3954</v>
+        <v>3852</v>
       </c>
       <c r="B2" t="s">
-        <v>3955</v>
+        <v>3853</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>3745</v>
+        <v>3854</v>
       </c>
       <c r="B3" t="s">
-        <v>3956</v>
+        <v>3855</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>3957</v>
+        <v>3856</v>
       </c>
       <c r="B4" t="s">
-        <v>3958</v>
+        <v>3857</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>3959</v>
+        <v>3858</v>
       </c>
       <c r="B5" t="s">
-        <v>3960</v>
+        <v>3859</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -21979,39 +21169,39 @@
         <v>1095</v>
       </c>
       <c r="B7" t="s">
-        <v>3961</v>
+        <v>3860</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>3962</v>
+        <v>3861</v>
       </c>
       <c r="B8" t="s">
-        <v>3963</v>
+        <v>3862</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>3964</v>
+        <v>3863</v>
       </c>
       <c r="B9" t="s">
-        <v>3965</v>
+        <v>3864</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>3966</v>
+        <v>3865</v>
       </c>
       <c r="B10" t="s">
-        <v>3967</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>3968</v>
+        <v>3867</v>
       </c>
       <c r="B11" t="s">
-        <v>3969</v>
+        <v>3868</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
@@ -22024,10 +21214,10 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>3970</v>
+        <v>3869</v>
       </c>
       <c r="B13" t="s">
-        <v>3971</v>
+        <v>3870</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
@@ -22040,10 +21230,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>3972</v>
+        <v>3871</v>
       </c>
       <c r="B15" t="s">
-        <v>3973</v>
+        <v>3872</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
@@ -22056,34 +21246,34 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>3974</v>
+        <v>3873</v>
       </c>
       <c r="B17" t="s">
-        <v>3975</v>
+        <v>3874</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>3976</v>
+        <v>3875</v>
       </c>
       <c r="B18" t="s">
-        <v>3977</v>
+        <v>3876</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>3978</v>
+        <v>3877</v>
       </c>
       <c r="B19" t="s">
-        <v>3979</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>3980</v>
+        <v>3879</v>
       </c>
       <c r="B20" t="s">
-        <v>3981</v>
+        <v>3880</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
@@ -22091,23 +21281,23 @@
         <v>2006</v>
       </c>
       <c r="B21" t="s">
-        <v>3982</v>
+        <v>3881</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>3983</v>
+        <v>3882</v>
       </c>
       <c r="B22" t="s">
-        <v>3984</v>
+        <v>3883</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>3985</v>
+        <v>3884</v>
       </c>
       <c r="B23" t="s">
-        <v>3986</v>
+        <v>3885</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
@@ -22123,15 +21313,15 @@
         <v>3387</v>
       </c>
       <c r="B25" t="s">
-        <v>3765</v>
+        <v>3886</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>3987</v>
+        <v>3887</v>
       </c>
       <c r="B26" t="s">
-        <v>3988</v>
+        <v>3888</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
@@ -22139,7 +21329,7 @@
         <v>457</v>
       </c>
       <c r="B27" t="s">
-        <v>3989</v>
+        <v>3889</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
@@ -22147,23 +21337,23 @@
         <v>2591</v>
       </c>
       <c r="B28" t="s">
-        <v>3990</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>3991</v>
+        <v>3891</v>
       </c>
       <c r="B29" t="s">
-        <v>3992</v>
+        <v>3892</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>3993</v>
+        <v>3893</v>
       </c>
       <c r="B30" t="s">
-        <v>3994</v>
+        <v>3894</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
@@ -22171,7 +21361,7 @@
         <v>3055</v>
       </c>
       <c r="B31" t="s">
-        <v>3995</v>
+        <v>3895</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
@@ -22179,7 +21369,7 @@
         <v>3136</v>
       </c>
       <c r="B32" t="s">
-        <v>3996</v>
+        <v>3896</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
@@ -22187,7 +21377,7 @@
         <v>402</v>
       </c>
       <c r="B33" t="s">
-        <v>3997</v>
+        <v>3897</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
@@ -22200,7 +21390,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>3998</v>
+        <v>3898</v>
       </c>
       <c r="B35" t="s">
         <v>743</v>
@@ -22208,18 +21398,18 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>3999</v>
+        <v>3899</v>
       </c>
       <c r="B36" t="s">
-        <v>4000</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>4001</v>
+        <v>3901</v>
       </c>
       <c r="B37" t="s">
-        <v>4002</v>
+        <v>3902</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
@@ -22235,15 +21425,15 @@
         <v>868</v>
       </c>
       <c r="B39" t="s">
-        <v>4003</v>
+        <v>3903</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>4004</v>
+        <v>3904</v>
       </c>
       <c r="B40" t="s">
-        <v>4005</v>
+        <v>3905</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
@@ -22251,7 +21441,7 @@
         <v>342</v>
       </c>
       <c r="B41" t="s">
-        <v>4006</v>
+        <v>3906</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.4">
@@ -22259,7 +21449,7 @@
         <v>1128</v>
       </c>
       <c r="B42" t="s">
-        <v>4007</v>
+        <v>3907</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.4">
@@ -22267,31 +21457,31 @@
         <v>2368</v>
       </c>
       <c r="B43" t="s">
-        <v>4008</v>
+        <v>3908</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>4009</v>
+        <v>3909</v>
       </c>
       <c r="B44" t="s">
-        <v>4010</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>4011</v>
+        <v>3911</v>
       </c>
       <c r="B45" t="s">
-        <v>4012</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>4013</v>
+        <v>3913</v>
       </c>
       <c r="B46" t="s">
-        <v>4014</v>
+        <v>3914</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.4">
@@ -22299,23 +21489,23 @@
         <v>3089</v>
       </c>
       <c r="B47" t="s">
-        <v>4015</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>4016</v>
+        <v>3916</v>
       </c>
       <c r="B48" t="s">
-        <v>4017</v>
+        <v>3917</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>4018</v>
+        <v>3918</v>
       </c>
       <c r="B49" t="s">
-        <v>4019</v>
+        <v>3919</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.4">
@@ -22328,31 +21518,31 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>4020</v>
+        <v>3920</v>
       </c>
       <c r="B51" t="s">
-        <v>4021</v>
+        <v>3921</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>4022</v>
+        <v>3922</v>
       </c>
       <c r="B52" t="s">
-        <v>4023</v>
+        <v>3923</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>4024</v>
+        <v>3924</v>
       </c>
       <c r="B53" t="s">
-        <v>4025</v>
+        <v>3925</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>4026</v>
+        <v>3926</v>
       </c>
       <c r="B54" t="s">
         <v>2365</v>
@@ -22360,18 +21550,18 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>4027</v>
+        <v>3927</v>
       </c>
       <c r="B55" t="s">
-        <v>4028</v>
+        <v>3928</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>4029</v>
+        <v>3929</v>
       </c>
       <c r="B56" t="s">
-        <v>4030</v>
+        <v>3930</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.4">
@@ -22384,58 +21574,58 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>4031</v>
+        <v>3931</v>
       </c>
       <c r="B58" t="s">
-        <v>4032</v>
+        <v>3932</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>4033</v>
+        <v>3933</v>
       </c>
       <c r="B59" t="s">
-        <v>4034</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>4035</v>
+        <v>3935</v>
       </c>
       <c r="B60" t="s">
-        <v>4036</v>
+        <v>3936</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>4037</v>
+        <v>3937</v>
       </c>
       <c r="B61" t="s">
-        <v>4038</v>
+        <v>3938</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>4039</v>
+        <v>3939</v>
       </c>
       <c r="B62" t="s">
-        <v>4040</v>
+        <v>3940</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>4041</v>
+        <v>3941</v>
       </c>
       <c r="B63" t="s">
-        <v>4042</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>4043</v>
+        <v>3943</v>
       </c>
       <c r="B64" t="s">
-        <v>4044</v>
+        <v>3944</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.4">
@@ -22448,10 +21638,10 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>4045</v>
+        <v>3945</v>
       </c>
       <c r="B66" t="s">
-        <v>4046</v>
+        <v>3946</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.4">
@@ -22459,47 +21649,47 @@
         <v>1844</v>
       </c>
       <c r="B67" t="s">
-        <v>4047</v>
+        <v>3947</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>4048</v>
+        <v>3948</v>
       </c>
       <c r="B68" t="s">
-        <v>4049</v>
+        <v>3949</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>4050</v>
+        <v>3950</v>
       </c>
       <c r="B69" t="s">
-        <v>4051</v>
+        <v>3951</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>4052</v>
+        <v>3952</v>
       </c>
       <c r="B70" t="s">
-        <v>4053</v>
+        <v>3953</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>4054</v>
+        <v>3954</v>
       </c>
       <c r="B71" t="s">
-        <v>4055</v>
+        <v>3955</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>4056</v>
+        <v>3956</v>
       </c>
       <c r="B72" t="s">
-        <v>4057</v>
+        <v>3957</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.4">
@@ -22507,15 +21697,1527 @@
         <v>568</v>
       </c>
       <c r="B73" t="s">
-        <v>4058</v>
+        <v>3958</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
+        <v>3959</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3960</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B187"/>
+  <sheetViews>
+    <sheetView topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="A187" sqref="A187"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>3961</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3962</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>3963</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>3965</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3966</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>3967</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3968</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>3969</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3970</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>550</v>
+      </c>
+      <c r="B6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>3971</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3972</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>3973</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>3975</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3976</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>3977</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3978</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>3979</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3980</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>3981</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3982</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>3983</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3984</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>3985</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3986</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>2164</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>3987</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3988</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>3989</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3991</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>3992</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3993</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>3994</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>3996</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>3877</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3878</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>3998</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>4000</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3535</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>4001</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>4003</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>3303</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3304</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>4005</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>4007</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4008</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>4009</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4010</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>4011</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4012</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>4013</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>4014</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4015</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>3723</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4016</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>4017</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4018</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>4019</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4020</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>4021</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4022</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>4023</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4024</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>4025</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4026</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>4027</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4028</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4029</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>4030</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4031</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>2684</v>
+      </c>
+      <c r="B43" t="s">
+        <v>4032</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>4033</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>2831</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2832</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>4034</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4035</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4036</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>4037</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4038</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>4039</v>
+      </c>
+      <c r="B49" t="s">
+        <v>4040</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4041</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>937</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4042</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>4043</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4044</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>4045</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>4047</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>4048</v>
+      </c>
+      <c r="B55" t="s">
+        <v>4049</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>4050</v>
+      </c>
+      <c r="B56" t="s">
+        <v>4051</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>3396</v>
+      </c>
+      <c r="B57" t="s">
+        <v>4052</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>4053</v>
+      </c>
+      <c r="B58" t="s">
+        <v>4054</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>2491</v>
+      </c>
+      <c r="B59" t="s">
+        <v>4055</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>4056</v>
+      </c>
+      <c r="B60" t="s">
+        <v>4057</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>4058</v>
+      </c>
+      <c r="B61" t="s">
         <v>4059</v>
       </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>4060</v>
+      </c>
+      <c r="B62" t="s">
+        <v>4061</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>4062</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4063</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>3476</v>
+      </c>
+      <c r="B64" t="s">
+        <v>4064</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>200</v>
+      </c>
+      <c r="B65" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>4065</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4066</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>4067</v>
+      </c>
+      <c r="B67" t="s">
+        <v>4068</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>4069</v>
+      </c>
+      <c r="B68" t="s">
+        <v>4070</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>4071</v>
+      </c>
+      <c r="B69" t="s">
+        <v>4072</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>3656</v>
+      </c>
+      <c r="B70" t="s">
+        <v>3657</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>4073</v>
+      </c>
+      <c r="B71" t="s">
+        <v>4074</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>4075</v>
+      </c>
+      <c r="B72" t="s">
+        <v>4076</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>4077</v>
+      </c>
+      <c r="B73" t="s">
+        <v>4078</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>4079</v>
+      </c>
       <c r="B74" t="s">
-        <v>4060</v>
+        <v>4080</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>4081</v>
+      </c>
+      <c r="B75" t="s">
+        <v>4082</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>4083</v>
+      </c>
+      <c r="B76" t="s">
+        <v>4084</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>4085</v>
+      </c>
+      <c r="B77" t="s">
+        <v>4086</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>4087</v>
+      </c>
+      <c r="B78" t="s">
+        <v>4088</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
+        <v>4089</v>
+      </c>
+      <c r="B79" t="s">
+        <v>4090</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>4091</v>
+      </c>
+      <c r="B80" t="s">
+        <v>4092</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>4093</v>
+      </c>
+      <c r="B81" t="s">
+        <v>4094</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
+        <v>4095</v>
+      </c>
+      <c r="B82" t="s">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>4097</v>
+      </c>
+      <c r="B83" t="s">
+        <v>4098</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>4099</v>
+      </c>
+      <c r="B84" t="s">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
+        <v>2045</v>
+      </c>
+      <c r="B85" t="s">
+        <v>4101</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
+        <v>4102</v>
+      </c>
+      <c r="B86" t="s">
+        <v>4103</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>4104</v>
+      </c>
+      <c r="B87" t="s">
+        <v>4105</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
+        <v>4106</v>
+      </c>
+      <c r="B88" t="s">
+        <v>4107</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>4108</v>
+      </c>
+      <c r="B89" t="s">
+        <v>4109</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
+        <v>4110</v>
+      </c>
+      <c r="B90" t="s">
+        <v>4111</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
+        <v>4112</v>
+      </c>
+      <c r="B91" t="s">
+        <v>4113</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A92" t="s">
+        <v>4114</v>
+      </c>
+      <c r="B92" t="s">
+        <v>4115</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A93" t="s">
+        <v>4116</v>
+      </c>
+      <c r="B93" t="s">
+        <v>4117</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A94" t="s">
+        <v>3073</v>
+      </c>
+      <c r="B94" t="s">
+        <v>4118</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A95" t="s">
+        <v>4119</v>
+      </c>
+      <c r="B95" t="s">
+        <v>4120</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A96" t="s">
+        <v>3873</v>
+      </c>
+      <c r="B96" t="s">
+        <v>3874</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A97" t="s">
+        <v>4121</v>
+      </c>
+      <c r="B97" t="s">
+        <v>4122</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A98" t="s">
+        <v>2406</v>
+      </c>
+      <c r="B98" t="s">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A99" t="s">
+        <v>4123</v>
+      </c>
+      <c r="B99" t="s">
+        <v>4124</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A100" t="s">
+        <v>4125</v>
+      </c>
+      <c r="B100" t="s">
+        <v>4126</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A101" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B101" t="s">
+        <v>3624</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A102" t="s">
+        <v>874</v>
+      </c>
+      <c r="B102" t="s">
+        <v>4127</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A103" t="s">
+        <v>4128</v>
+      </c>
+      <c r="B103" t="s">
+        <v>4129</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A104" t="s">
+        <v>4130</v>
+      </c>
+      <c r="B104" t="s">
+        <v>4131</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A105" t="s">
+        <v>4132</v>
+      </c>
+      <c r="B105" t="s">
+        <v>4133</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A106" t="s">
+        <v>4134</v>
+      </c>
+      <c r="B106" t="s">
+        <v>4135</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A107" t="s">
+        <v>4136</v>
+      </c>
+      <c r="B107" t="s">
+        <v>4137</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A108" t="s">
+        <v>4138</v>
+      </c>
+      <c r="B108" t="s">
+        <v>4139</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A109" t="s">
+        <v>3144</v>
+      </c>
+      <c r="B109" t="s">
+        <v>3145</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A110" t="s">
+        <v>4140</v>
+      </c>
+      <c r="B110" t="s">
+        <v>4141</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A111" t="s">
+        <v>4142</v>
+      </c>
+      <c r="B111" t="s">
+        <v>4143</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A112" t="s">
+        <v>4144</v>
+      </c>
+      <c r="B112" t="s">
+        <v>4145</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A113" t="s">
+        <v>4146</v>
+      </c>
+      <c r="B113" t="s">
+        <v>4147</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A114" t="s">
+        <v>4148</v>
+      </c>
+      <c r="B114" t="s">
+        <v>4149</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A115" t="s">
+        <v>4150</v>
+      </c>
+      <c r="B115" t="s">
+        <v>4151</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A116" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B116" t="s">
+        <v>4152</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A117" t="s">
+        <v>775</v>
+      </c>
+      <c r="B117" t="s">
+        <v>4153</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A118" t="s">
+        <v>4154</v>
+      </c>
+      <c r="B118" t="s">
+        <v>4155</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A119" t="s">
+        <v>4156</v>
+      </c>
+      <c r="B119" t="s">
+        <v>4157</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A120" t="s">
+        <v>4158</v>
+      </c>
+      <c r="B120" t="s">
+        <v>4159</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A121" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B121" t="s">
+        <v>4160</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A122" t="s">
+        <v>4161</v>
+      </c>
+      <c r="B122" t="s">
+        <v>4162</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A123" t="s">
+        <v>4163</v>
+      </c>
+      <c r="B123" t="s">
+        <v>4164</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A124" t="s">
+        <v>4165</v>
+      </c>
+      <c r="B124" t="s">
+        <v>4166</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A125" t="s">
+        <v>4167</v>
+      </c>
+      <c r="B125" t="s">
+        <v>4168</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A126" t="s">
+        <v>4169</v>
+      </c>
+      <c r="B126" t="s">
+        <v>4170</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A127" t="s">
+        <v>3736</v>
+      </c>
+      <c r="B127" t="s">
+        <v>4171</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A128" t="s">
+        <v>4172</v>
+      </c>
+      <c r="B128" t="s">
+        <v>4173</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A129" t="s">
+        <v>4174</v>
+      </c>
+      <c r="B129" t="s">
+        <v>4175</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A130" t="s">
+        <v>4176</v>
+      </c>
+      <c r="B130" t="s">
+        <v>4177</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A131" t="s">
+        <v>76</v>
+      </c>
+      <c r="B131" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A132" t="s">
+        <v>4178</v>
+      </c>
+      <c r="B132" t="s">
+        <v>4179</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A133" t="s">
+        <v>4180</v>
+      </c>
+      <c r="B133" t="s">
+        <v>4181</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A134" t="s">
+        <v>4182</v>
+      </c>
+      <c r="B134" t="s">
+        <v>4183</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A135" t="s">
+        <v>62</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A136" t="s">
+        <v>499</v>
+      </c>
+      <c r="B136" t="s">
+        <v>4184</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A137" t="s">
+        <v>4185</v>
+      </c>
+      <c r="B137" t="s">
+        <v>4186</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A138" t="s">
+        <v>4187</v>
+      </c>
+      <c r="B138" t="s">
+        <v>4188</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A139" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B139" t="s">
+        <v>4189</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A140" t="s">
+        <v>4190</v>
+      </c>
+      <c r="B140" t="s">
+        <v>4191</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A141" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B141" t="s">
+        <v>4192</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A142" t="s">
+        <v>4193</v>
+      </c>
+      <c r="B142" t="s">
+        <v>4194</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A143" t="s">
+        <v>4195</v>
+      </c>
+      <c r="B143" t="s">
+        <v>4196</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A144" t="s">
+        <v>4197</v>
+      </c>
+      <c r="B144" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A145" t="s">
+        <v>4198</v>
+      </c>
+      <c r="B145" t="s">
+        <v>4199</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A146" t="s">
+        <v>4200</v>
+      </c>
+      <c r="B146" t="s">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A147" t="s">
+        <v>4202</v>
+      </c>
+      <c r="B147" t="s">
+        <v>4203</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A148" t="s">
+        <v>4204</v>
+      </c>
+      <c r="B148" t="s">
+        <v>4205</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A149" t="s">
+        <v>4206</v>
+      </c>
+      <c r="B149" t="s">
+        <v>4207</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A150" t="s">
+        <v>4208</v>
+      </c>
+      <c r="B150" t="s">
+        <v>4209</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A151" t="s">
+        <v>4210</v>
+      </c>
+      <c r="B151" t="s">
+        <v>4211</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A152" t="s">
+        <v>4212</v>
+      </c>
+      <c r="B152" t="s">
+        <v>4213</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A153" t="s">
+        <v>4214</v>
+      </c>
+      <c r="B153" t="s">
+        <v>4215</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A154" t="s">
+        <v>4216</v>
+      </c>
+      <c r="B154" t="s">
+        <v>4217</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A155" t="s">
+        <v>546</v>
+      </c>
+      <c r="B155" t="s">
+        <v>4218</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A156" t="s">
+        <v>4219</v>
+      </c>
+      <c r="B156" t="s">
+        <v>4220</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A157" t="s">
+        <v>4221</v>
+      </c>
+      <c r="B157" t="s">
+        <v>4222</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A158" t="s">
+        <v>4223</v>
+      </c>
+      <c r="B158" t="s">
+        <v>4224</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A159" t="s">
+        <v>4225</v>
+      </c>
+      <c r="B159" t="s">
+        <v>4226</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A160" t="s">
+        <v>4227</v>
+      </c>
+      <c r="B160" t="s">
+        <v>4228</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A161" t="s">
+        <v>4229</v>
+      </c>
+      <c r="B161" t="s">
+        <v>4230</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A162" t="s">
+        <v>402</v>
+      </c>
+      <c r="B162" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A163" t="s">
+        <v>184</v>
+      </c>
+      <c r="B163" t="s">
+        <v>4231</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A164" t="s">
+        <v>230</v>
+      </c>
+      <c r="B164" t="s">
+        <v>4232</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A165" t="s">
+        <v>4233</v>
+      </c>
+      <c r="B165" t="s">
+        <v>4234</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A166" t="s">
+        <v>2243</v>
+      </c>
+      <c r="B166" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A167" t="s">
+        <v>4235</v>
+      </c>
+      <c r="B167" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A168" t="s">
+        <v>2270</v>
+      </c>
+      <c r="B168" t="s">
+        <v>4237</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A169" t="s">
+        <v>4238</v>
+      </c>
+      <c r="B169" t="s">
+        <v>4239</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A170" t="s">
+        <v>4240</v>
+      </c>
+      <c r="B170" t="s">
+        <v>4241</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A171" t="s">
+        <v>4242</v>
+      </c>
+      <c r="B171" t="s">
+        <v>4243</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A172" t="s">
+        <v>4244</v>
+      </c>
+      <c r="B172" t="s">
+        <v>4245</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A173" t="s">
+        <v>4246</v>
+      </c>
+      <c r="B173" t="s">
+        <v>4247</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A174" t="s">
+        <v>4248</v>
+      </c>
+      <c r="B174" t="s">
+        <v>4249</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A175" t="s">
+        <v>813</v>
+      </c>
+      <c r="B175" t="s">
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A176" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B176" t="s">
+        <v>4251</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A177" t="s">
+        <v>4252</v>
+      </c>
+      <c r="B177" t="s">
+        <v>4253</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A178" t="s">
+        <v>4254</v>
+      </c>
+      <c r="B178" t="s">
+        <v>4255</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A179" t="s">
+        <v>4256</v>
+      </c>
+      <c r="B179" t="s">
+        <v>4257</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A180" t="s">
+        <v>4258</v>
+      </c>
+      <c r="B180" t="s">
+        <v>4259</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A181" t="s">
+        <v>4260</v>
+      </c>
+      <c r="B181" t="s">
+        <v>4261</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A182" t="s">
+        <v>678</v>
+      </c>
+      <c r="B182" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A183" t="s">
+        <v>4262</v>
+      </c>
+      <c r="B183" t="s">
+        <v>4263</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A184" t="s">
+        <v>624</v>
+      </c>
+      <c r="B184" t="s">
+        <v>4264</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A185" t="s">
+        <v>4265</v>
+      </c>
+      <c r="B185" t="s">
+        <v>4266</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A186" t="s">
+        <v>4267</v>
+      </c>
+      <c r="B186" t="s">
+        <v>4268</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A187" t="s">
+        <v>4269</v>
+      </c>
+      <c r="B187" t="s">
+        <v>4270</v>
       </c>
     </row>
   </sheetData>
@@ -22526,1513 +23228,74 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B187"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>4061</v>
+        <v>4271</v>
       </c>
       <c r="B1" t="s">
-        <v>4062</v>
+        <v>4276</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>4063</v>
+        <v>4272</v>
       </c>
       <c r="B2" t="s">
-        <v>4064</v>
+        <v>4276</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>4065</v>
+        <v>4275</v>
       </c>
       <c r="B3" t="s">
-        <v>4066</v>
+        <v>4276</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>4067</v>
+        <v>4273</v>
       </c>
       <c r="B4" t="s">
-        <v>4068</v>
+        <v>4277</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>4069</v>
+        <v>4274</v>
       </c>
       <c r="B5" t="s">
-        <v>4070</v>
+        <v>4278</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>550</v>
+        <v>4282</v>
       </c>
       <c r="B6" t="s">
-        <v>551</v>
+        <v>4279</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>4071</v>
+        <v>4281</v>
       </c>
       <c r="B7" t="s">
-        <v>4072</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>4073</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4074</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>4075</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4076</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>4077</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4078</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>4079</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4080</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>4081</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4082</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>4083</v>
-      </c>
-      <c r="B13" t="s">
-        <v>4084</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>4085</v>
-      </c>
-      <c r="B14" t="s">
-        <v>4086</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>2164</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2165</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>4087</v>
-      </c>
-      <c r="B16" t="s">
-        <v>4088</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>4089</v>
-      </c>
-      <c r="B17" t="s">
-        <v>4090</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>1800</v>
-      </c>
-      <c r="B18" t="s">
-        <v>4091</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>4092</v>
-      </c>
-      <c r="B19" t="s">
-        <v>4093</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>4094</v>
-      </c>
-      <c r="B20" t="s">
-        <v>4095</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>4096</v>
-      </c>
-      <c r="B21" t="s">
-        <v>4097</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>3978</v>
-      </c>
-      <c r="B22" t="s">
-        <v>3979</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>4098</v>
-      </c>
-      <c r="B23" t="s">
-        <v>4099</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>4100</v>
-      </c>
-      <c r="B24" t="s">
-        <v>3535</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>4101</v>
-      </c>
-      <c r="B25" t="s">
-        <v>4102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>4103</v>
-      </c>
-      <c r="B26" t="s">
-        <v>4104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>3303</v>
-      </c>
-      <c r="B27" t="s">
-        <v>3304</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>4105</v>
-      </c>
-      <c r="B28" t="s">
-        <v>4106</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>4107</v>
-      </c>
-      <c r="B29" t="s">
-        <v>4108</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
-        <v>4109</v>
-      </c>
-      <c r="B30" t="s">
-        <v>4110</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>4111</v>
-      </c>
-      <c r="B31" t="s">
-        <v>4112</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
-        <v>4113</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1959</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>4114</v>
-      </c>
-      <c r="B33" t="s">
-        <v>4115</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
-        <v>3826</v>
-      </c>
-      <c r="B34" t="s">
-        <v>4116</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>4117</v>
-      </c>
-      <c r="B35" t="s">
-        <v>4118</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>4119</v>
-      </c>
-      <c r="B36" t="s">
-        <v>4120</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
-        <v>4121</v>
-      </c>
-      <c r="B37" t="s">
-        <v>4122</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
-        <v>4123</v>
-      </c>
-      <c r="B38" t="s">
-        <v>4124</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
-        <v>4125</v>
-      </c>
-      <c r="B39" t="s">
-        <v>4126</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
-        <v>4127</v>
-      </c>
-      <c r="B40" t="s">
-        <v>4128</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
-        <v>1923</v>
-      </c>
-      <c r="B41" t="s">
-        <v>4129</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
-        <v>4130</v>
-      </c>
-      <c r="B42" t="s">
-        <v>4131</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A43" t="s">
-        <v>2684</v>
-      </c>
-      <c r="B43" t="s">
-        <v>4132</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
-        <v>4133</v>
-      </c>
-      <c r="B44" t="s">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
-        <v>2831</v>
-      </c>
-      <c r="B45" t="s">
-        <v>2832</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
-        <v>4134</v>
-      </c>
-      <c r="B46" t="s">
-        <v>4135</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
-        <v>1563</v>
-      </c>
-      <c r="B47" t="s">
-        <v>4136</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
-        <v>4137</v>
-      </c>
-      <c r="B48" t="s">
-        <v>4138</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A49" t="s">
-        <v>4139</v>
-      </c>
-      <c r="B49" t="s">
-        <v>4140</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A50" t="s">
-        <v>1748</v>
-      </c>
-      <c r="B50" t="s">
-        <v>4141</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A51" t="s">
-        <v>937</v>
-      </c>
-      <c r="B51" t="s">
-        <v>4142</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
-        <v>4143</v>
-      </c>
-      <c r="B52" t="s">
-        <v>4144</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A53" t="s">
-        <v>4145</v>
-      </c>
-      <c r="B53" t="s">
-        <v>4146</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A54" t="s">
-        <v>4147</v>
-      </c>
-      <c r="B54" t="s">
-        <v>2685</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A55" t="s">
-        <v>4148</v>
-      </c>
-      <c r="B55" t="s">
-        <v>4149</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A56" t="s">
-        <v>4150</v>
-      </c>
-      <c r="B56" t="s">
-        <v>4151</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A57" t="s">
-        <v>3396</v>
-      </c>
-      <c r="B57" t="s">
-        <v>4152</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A58" t="s">
-        <v>4153</v>
-      </c>
-      <c r="B58" t="s">
-        <v>4154</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A59" t="s">
-        <v>2491</v>
-      </c>
-      <c r="B59" t="s">
-        <v>4155</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A60" t="s">
-        <v>4156</v>
-      </c>
-      <c r="B60" t="s">
-        <v>4157</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A61" t="s">
-        <v>4158</v>
-      </c>
-      <c r="B61" t="s">
-        <v>4159</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A62" t="s">
-        <v>4160</v>
-      </c>
-      <c r="B62" t="s">
-        <v>4161</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A63" t="s">
-        <v>4162</v>
-      </c>
-      <c r="B63" t="s">
-        <v>4163</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A64" t="s">
-        <v>3476</v>
-      </c>
-      <c r="B64" t="s">
-        <v>4164</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A65" t="s">
-        <v>200</v>
-      </c>
-      <c r="B65" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A66" t="s">
-        <v>4165</v>
-      </c>
-      <c r="B66" t="s">
-        <v>4166</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A67" t="s">
-        <v>4167</v>
-      </c>
-      <c r="B67" t="s">
-        <v>4168</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A68" t="s">
-        <v>4169</v>
-      </c>
-      <c r="B68" t="s">
-        <v>4170</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A69" t="s">
-        <v>4171</v>
-      </c>
-      <c r="B69" t="s">
-        <v>4172</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A70" t="s">
-        <v>3656</v>
-      </c>
-      <c r="B70" t="s">
-        <v>3657</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A71" t="s">
-        <v>4173</v>
-      </c>
-      <c r="B71" t="s">
-        <v>4174</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A72" t="s">
-        <v>4175</v>
-      </c>
-      <c r="B72" t="s">
-        <v>4176</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A73" t="s">
-        <v>4177</v>
-      </c>
-      <c r="B73" t="s">
-        <v>4178</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A74" t="s">
-        <v>4179</v>
-      </c>
-      <c r="B74" t="s">
-        <v>4180</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A75" t="s">
-        <v>4181</v>
-      </c>
-      <c r="B75" t="s">
-        <v>4182</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A76" t="s">
-        <v>4183</v>
-      </c>
-      <c r="B76" t="s">
-        <v>4184</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A77" t="s">
-        <v>4185</v>
-      </c>
-      <c r="B77" t="s">
-        <v>4186</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A78" t="s">
-        <v>4187</v>
-      </c>
-      <c r="B78" t="s">
-        <v>4188</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A79" t="s">
-        <v>4189</v>
-      </c>
-      <c r="B79" t="s">
-        <v>4190</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A80" t="s">
-        <v>4191</v>
-      </c>
-      <c r="B80" t="s">
-        <v>4192</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A81" t="s">
-        <v>4193</v>
-      </c>
-      <c r="B81" t="s">
-        <v>4194</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A82" t="s">
-        <v>4195</v>
-      </c>
-      <c r="B82" t="s">
-        <v>4196</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A83" t="s">
-        <v>4197</v>
-      </c>
-      <c r="B83" t="s">
-        <v>4198</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A84" t="s">
-        <v>4199</v>
-      </c>
-      <c r="B84" t="s">
-        <v>4200</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A85" t="s">
-        <v>2045</v>
-      </c>
-      <c r="B85" t="s">
-        <v>4201</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A86" t="s">
-        <v>4202</v>
-      </c>
-      <c r="B86" t="s">
-        <v>4203</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A87" t="s">
-        <v>4204</v>
-      </c>
-      <c r="B87" t="s">
-        <v>4205</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A88" t="s">
-        <v>4206</v>
-      </c>
-      <c r="B88" t="s">
-        <v>4207</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A89" t="s">
-        <v>4208</v>
-      </c>
-      <c r="B89" t="s">
-        <v>4209</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A90" t="s">
-        <v>4210</v>
-      </c>
-      <c r="B90" t="s">
-        <v>4211</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A91" t="s">
-        <v>4212</v>
-      </c>
-      <c r="B91" t="s">
-        <v>4213</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A92" t="s">
-        <v>4214</v>
-      </c>
-      <c r="B92" t="s">
-        <v>4215</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A93" t="s">
-        <v>4216</v>
-      </c>
-      <c r="B93" t="s">
-        <v>4217</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A94" t="s">
-        <v>3073</v>
-      </c>
-      <c r="B94" t="s">
-        <v>4218</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A95" t="s">
-        <v>4219</v>
-      </c>
-      <c r="B95" t="s">
-        <v>4220</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A96" t="s">
-        <v>3974</v>
-      </c>
-      <c r="B96" t="s">
-        <v>3975</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A97" t="s">
-        <v>4221</v>
-      </c>
-      <c r="B97" t="s">
-        <v>4222</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A98" t="s">
-        <v>2406</v>
-      </c>
-      <c r="B98" t="s">
-        <v>2407</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A99" t="s">
-        <v>4223</v>
-      </c>
-      <c r="B99" t="s">
-        <v>4224</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A100" t="s">
-        <v>4225</v>
-      </c>
-      <c r="B100" t="s">
-        <v>4226</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A101" t="s">
-        <v>1507</v>
-      </c>
-      <c r="B101" t="s">
-        <v>3624</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A102" t="s">
-        <v>874</v>
-      </c>
-      <c r="B102" t="s">
-        <v>4227</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A103" t="s">
-        <v>4228</v>
-      </c>
-      <c r="B103" t="s">
-        <v>4229</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A104" t="s">
-        <v>4230</v>
-      </c>
-      <c r="B104" t="s">
-        <v>4231</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A105" t="s">
-        <v>4232</v>
-      </c>
-      <c r="B105" t="s">
-        <v>4233</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A106" t="s">
-        <v>4234</v>
-      </c>
-      <c r="B106" t="s">
-        <v>4235</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A107" t="s">
-        <v>4236</v>
-      </c>
-      <c r="B107" t="s">
-        <v>4237</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A108" t="s">
-        <v>4238</v>
-      </c>
-      <c r="B108" t="s">
-        <v>4239</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A109" t="s">
-        <v>3144</v>
-      </c>
-      <c r="B109" t="s">
-        <v>3145</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A110" t="s">
-        <v>4240</v>
-      </c>
-      <c r="B110" t="s">
-        <v>4241</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A111" t="s">
-        <v>4242</v>
-      </c>
-      <c r="B111" t="s">
-        <v>4243</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A112" t="s">
-        <v>4244</v>
-      </c>
-      <c r="B112" t="s">
-        <v>4245</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A113" t="s">
-        <v>4246</v>
-      </c>
-      <c r="B113" t="s">
-        <v>4247</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A114" t="s">
-        <v>4248</v>
-      </c>
-      <c r="B114" t="s">
-        <v>4249</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A115" t="s">
-        <v>4250</v>
-      </c>
-      <c r="B115" t="s">
-        <v>4251</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A116" t="s">
-        <v>1763</v>
-      </c>
-      <c r="B116" t="s">
-        <v>4252</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A117" t="s">
-        <v>775</v>
-      </c>
-      <c r="B117" t="s">
-        <v>4253</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A118" t="s">
-        <v>4254</v>
-      </c>
-      <c r="B118" t="s">
-        <v>4255</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A119" t="s">
-        <v>4256</v>
-      </c>
-      <c r="B119" t="s">
-        <v>4257</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A120" t="s">
-        <v>4258</v>
-      </c>
-      <c r="B120" t="s">
-        <v>4259</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A121" t="s">
-        <v>1312</v>
-      </c>
-      <c r="B121" t="s">
-        <v>4260</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A122" t="s">
-        <v>4261</v>
-      </c>
-      <c r="B122" t="s">
-        <v>4262</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A123" t="s">
-        <v>4263</v>
-      </c>
-      <c r="B123" t="s">
-        <v>4264</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A124" t="s">
-        <v>4265</v>
-      </c>
-      <c r="B124" t="s">
-        <v>4266</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A125" t="s">
-        <v>4267</v>
-      </c>
-      <c r="B125" t="s">
-        <v>4268</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A126" t="s">
-        <v>4269</v>
-      </c>
-      <c r="B126" t="s">
-        <v>4270</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A127" t="s">
-        <v>3839</v>
-      </c>
-      <c r="B127" t="s">
-        <v>4271</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A128" t="s">
-        <v>4272</v>
-      </c>
-      <c r="B128" t="s">
-        <v>4273</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A129" t="s">
-        <v>4274</v>
-      </c>
-      <c r="B129" t="s">
-        <v>4275</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A130" t="s">
-        <v>4276</v>
-      </c>
-      <c r="B130" t="s">
-        <v>4277</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A131" t="s">
-        <v>76</v>
-      </c>
-      <c r="B131" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A132" t="s">
-        <v>4278</v>
-      </c>
-      <c r="B132" t="s">
-        <v>4279</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A133" t="s">
         <v>4280</v>
-      </c>
-      <c r="B133" t="s">
-        <v>4281</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A134" t="s">
-        <v>4282</v>
-      </c>
-      <c r="B134" t="s">
-        <v>4283</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A135" t="s">
-        <v>62</v>
-      </c>
-      <c r="B135" t="s">
-        <v>1493</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A136" t="s">
-        <v>499</v>
-      </c>
-      <c r="B136" t="s">
-        <v>4284</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A137" t="s">
-        <v>4285</v>
-      </c>
-      <c r="B137" t="s">
-        <v>4286</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A138" t="s">
-        <v>4287</v>
-      </c>
-      <c r="B138" t="s">
-        <v>4288</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A139" t="s">
-        <v>1187</v>
-      </c>
-      <c r="B139" t="s">
-        <v>4289</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A140" t="s">
-        <v>4290</v>
-      </c>
-      <c r="B140" t="s">
-        <v>4291</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A141" t="s">
-        <v>1087</v>
-      </c>
-      <c r="B141" t="s">
-        <v>4292</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A142" t="s">
-        <v>4293</v>
-      </c>
-      <c r="B142" t="s">
-        <v>4294</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A143" t="s">
-        <v>4295</v>
-      </c>
-      <c r="B143" t="s">
-        <v>4296</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A144" t="s">
-        <v>4297</v>
-      </c>
-      <c r="B144" t="s">
-        <v>2194</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A145" t="s">
-        <v>4298</v>
-      </c>
-      <c r="B145" t="s">
-        <v>4299</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A146" t="s">
-        <v>4300</v>
-      </c>
-      <c r="B146" t="s">
-        <v>4301</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A147" t="s">
-        <v>4302</v>
-      </c>
-      <c r="B147" t="s">
-        <v>4303</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A148" t="s">
-        <v>4304</v>
-      </c>
-      <c r="B148" t="s">
-        <v>4305</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A149" t="s">
-        <v>4306</v>
-      </c>
-      <c r="B149" t="s">
-        <v>4307</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A150" t="s">
-        <v>4308</v>
-      </c>
-      <c r="B150" t="s">
-        <v>4309</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A151" t="s">
-        <v>4310</v>
-      </c>
-      <c r="B151" t="s">
-        <v>4311</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A152" t="s">
-        <v>4312</v>
-      </c>
-      <c r="B152" t="s">
-        <v>4313</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A153" t="s">
-        <v>4314</v>
-      </c>
-      <c r="B153" t="s">
-        <v>4315</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A154" t="s">
-        <v>4316</v>
-      </c>
-      <c r="B154" t="s">
-        <v>4317</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A155" t="s">
-        <v>546</v>
-      </c>
-      <c r="B155" t="s">
-        <v>4318</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A156" t="s">
-        <v>4319</v>
-      </c>
-      <c r="B156" t="s">
-        <v>4320</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A157" t="s">
-        <v>4321</v>
-      </c>
-      <c r="B157" t="s">
-        <v>4322</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A158" t="s">
-        <v>3687</v>
-      </c>
-      <c r="B158" t="s">
-        <v>4323</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A159" t="s">
-        <v>4324</v>
-      </c>
-      <c r="B159" t="s">
-        <v>4325</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A160" t="s">
-        <v>4326</v>
-      </c>
-      <c r="B160" t="s">
-        <v>4327</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A161" t="s">
-        <v>4328</v>
-      </c>
-      <c r="B161" t="s">
-        <v>4329</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A162" t="s">
-        <v>402</v>
-      </c>
-      <c r="B162" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A163" t="s">
-        <v>184</v>
-      </c>
-      <c r="B163" t="s">
-        <v>4330</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A164" t="s">
-        <v>230</v>
-      </c>
-      <c r="B164" t="s">
-        <v>4331</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A165" t="s">
-        <v>4332</v>
-      </c>
-      <c r="B165" t="s">
-        <v>4333</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A166" t="s">
-        <v>2243</v>
-      </c>
-      <c r="B166" t="s">
-        <v>2244</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A167" t="s">
-        <v>4334</v>
-      </c>
-      <c r="B167" t="s">
-        <v>4335</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A168" t="s">
-        <v>2270</v>
-      </c>
-      <c r="B168" t="s">
-        <v>4336</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A169" t="s">
-        <v>4337</v>
-      </c>
-      <c r="B169" t="s">
-        <v>4338</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A170" t="s">
-        <v>4339</v>
-      </c>
-      <c r="B170" t="s">
-        <v>4340</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A171" t="s">
-        <v>4341</v>
-      </c>
-      <c r="B171" t="s">
-        <v>4342</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A172" t="s">
-        <v>4343</v>
-      </c>
-      <c r="B172" t="s">
-        <v>4344</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A173" t="s">
-        <v>4345</v>
-      </c>
-      <c r="B173" t="s">
-        <v>4346</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A174" t="s">
-        <v>4347</v>
-      </c>
-      <c r="B174" t="s">
-        <v>4348</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A175" t="s">
-        <v>813</v>
-      </c>
-      <c r="B175" t="s">
-        <v>4349</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A176" t="s">
-        <v>1984</v>
-      </c>
-      <c r="B176" t="s">
-        <v>4350</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A177" t="s">
-        <v>4351</v>
-      </c>
-      <c r="B177" t="s">
-        <v>4352</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A178" t="s">
-        <v>4353</v>
-      </c>
-      <c r="B178" t="s">
-        <v>4354</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A179" t="s">
-        <v>4355</v>
-      </c>
-      <c r="B179" t="s">
-        <v>4356</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A180" t="s">
-        <v>4357</v>
-      </c>
-      <c r="B180" t="s">
-        <v>4358</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A181" t="s">
-        <v>4359</v>
-      </c>
-      <c r="B181" t="s">
-        <v>4360</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A182" t="s">
-        <v>678</v>
-      </c>
-      <c r="B182" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A183" t="s">
-        <v>4361</v>
-      </c>
-      <c r="B183" t="s">
-        <v>4362</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A184" t="s">
-        <v>624</v>
-      </c>
-      <c r="B184" t="s">
-        <v>4363</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A185" t="s">
-        <v>4364</v>
-      </c>
-      <c r="B185" t="s">
-        <v>4365</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A186" t="s">
-        <v>4366</v>
-      </c>
-      <c r="B186" t="s">
-        <v>4367</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A187" t="s">
-        <v>4368</v>
-      </c>
-      <c r="B187" t="s">
-        <v>4369</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -24040,7 +23303,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B172" sqref="B172"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
@@ -25137,19 +24402,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C188"/>
